--- a/user story & sprints/User Story 2.1.xlsx
+++ b/user story & sprints/User Story 2.1.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25317"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="500" activeTab="1"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="User Story" sheetId="1" r:id="rId3"/>
-    <sheet state="visible" name="Sprints" sheetId="2" r:id="rId4"/>
+    <sheet name="User Story" sheetId="1" r:id="rId1"/>
+    <sheet name="Sprints" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="832" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="231">
   <si>
     <t>S.No.</t>
   </si>
@@ -531,210 +539,280 @@
     <t>System</t>
   </si>
   <si>
-    <t>get the data from adminnistrator component</t>
-  </si>
-  <si>
     <t xml:space="preserve">Design database for department and the table structure for relation between physician and department </t>
   </si>
   <si>
     <t>patient/physician/relation</t>
   </si>
   <si>
-    <t>get the data from phamacy component</t>
-  </si>
-  <si>
     <t>prescription</t>
   </si>
   <si>
+    <t>han</t>
+  </si>
+  <si>
+    <t>finished</t>
+  </si>
+  <si>
+    <t>Set up table and design the GUI of management for the department-physician relationship</t>
+  </si>
+  <si>
+    <t>Implementing data access API based on the requirement designed earlier</t>
+  </si>
+  <si>
+    <t>Implement service layer and controller layer for being prepared for front page query</t>
+  </si>
+  <si>
+    <t>Implement javascript and html based on the GUI designed earlier</t>
+  </si>
+  <si>
+    <t>Test for each CRUD bussiness flow</t>
+  </si>
+  <si>
+    <t>Debugging and testing repeatedly untill no bugs</t>
+  </si>
+  <si>
+    <t>This color meas what we have done before last two demo</t>
+  </si>
+  <si>
+    <t>Combine this component with others and test it again</t>
+  </si>
+  <si>
+    <t>This color means what we did for last demo</t>
+  </si>
+  <si>
+    <t>Drug table has existed, design GUI for CRUD operation based on requirement</t>
+  </si>
+  <si>
+    <t>Design and implement data access API and service API</t>
+  </si>
+  <si>
+    <t>Design and implement controller layer API and Javascripts</t>
+  </si>
+  <si>
+    <t>Modify GUI and javascripts</t>
+  </si>
+  <si>
+    <t>Testing management(CRUD) operations based on requrement</t>
+  </si>
+  <si>
+    <t>Debuging</t>
+  </si>
+  <si>
+    <t>Surgery table has existed, design GUI for CRUD operation based on requirement</t>
+  </si>
+  <si>
+    <t>Admin account table has exists but there is no test data available. Prepared data and set up spring security configuration file to be prepared for implementation</t>
+  </si>
+  <si>
+    <t>Testing Login operations based on requrement</t>
+  </si>
+  <si>
+    <t>patient and physician table has existed, design GUI for retrieve the patient list and the physician list based on requirement</t>
+  </si>
+  <si>
+    <t>Testing retrieve lists based on requrement</t>
+  </si>
+  <si>
+    <t>medical staff and admin table has existed, design GUI for retrieve the admin list and the medical staff list based on requirement</t>
+  </si>
+  <si>
+    <t>Diagnostic test table has existed, design GUI for CRUD operation based on requirement</t>
+  </si>
+  <si>
+    <t>medical staff and physician relation table has not existed, design this table and GUI for CRUD operation based on requirement</t>
+  </si>
+  <si>
+    <t>on process</t>
+  </si>
+  <si>
+    <t>physician and patient relation table has existed, design  GUI for CRUD operation based on requirement</t>
+  </si>
+  <si>
+    <t>Desgin the manner to display the searching result</t>
+  </si>
+  <si>
+    <t>Modify html and javascript code to satisfy requirement</t>
+  </si>
+  <si>
+    <t>Modify backend code to satisfy front page queries</t>
+  </si>
+  <si>
+    <t>Test and debug until there is no bugs</t>
+  </si>
+  <si>
+    <t>Merge the codes with other components and test again</t>
+  </si>
+  <si>
+    <t>Modify backend API to satisfy display changes</t>
+  </si>
+  <si>
+    <t>Modify html and javascript code to display the information correctly</t>
+  </si>
+  <si>
+    <t>Test and debug</t>
+  </si>
+  <si>
+    <t>Merge the modified codes with other components together and test it again</t>
+  </si>
+  <si>
+    <t>Merge all modified components together again to test and deploy the project to the server, and then test it again</t>
+  </si>
+  <si>
+    <t>Modify physician-name search back-end method</t>
+  </si>
+  <si>
+    <t>Modify html and javascript code to show recommended physician name</t>
+  </si>
+  <si>
+    <t>put call code together and publish code into git</t>
+  </si>
+  <si>
+    <t>Modify patient-name search back-end method</t>
+  </si>
+  <si>
+    <t>Modify html and javascript code to show recommended patient name</t>
+  </si>
+  <si>
+    <t>Unit test for back-end method</t>
+  </si>
+  <si>
+    <t>get/send the data from phamacy component</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>send the data to insurance component</t>
-  </si>
-  <si>
-    <t>han</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>Set up table and design the GUI of management for the department-physician relationship</t>
-  </si>
-  <si>
-    <t>Implementing data access API based on the requirement designed earlier</t>
-  </si>
-  <si>
-    <t>Implement service layer and controller layer for being prepared for front page query</t>
-  </si>
-  <si>
-    <t>Implement javascript and html based on the GUI designed earlier</t>
-  </si>
-  <si>
-    <t>Test for each CRUD bussiness flow</t>
-  </si>
-  <si>
-    <t>Debugging and testing repeatedly untill no bugs</t>
-  </si>
-  <si>
-    <t>This color meas what we have done before last two demo</t>
-  </si>
-  <si>
-    <t>Combine this component with others and test it again</t>
-  </si>
-  <si>
-    <t>This color means what we did for last demo</t>
-  </si>
-  <si>
-    <t>Drug table has existed, design GUI for CRUD operation based on requirement</t>
-  </si>
-  <si>
-    <t>Design and implement data access API and service API</t>
-  </si>
-  <si>
-    <t>Design and implement controller layer API and Javascripts</t>
-  </si>
-  <si>
-    <t>Modify GUI and javascripts</t>
-  </si>
-  <si>
-    <t>Testing management(CRUD) operations based on requrement</t>
-  </si>
-  <si>
-    <t>Debuging</t>
-  </si>
-  <si>
-    <t>Surgery table has existed, design GUI for CRUD operation based on requirement</t>
-  </si>
-  <si>
-    <t>Admin account table has exists but there is no test data available. Prepared data and set up spring security configuration file to be prepared for implementation</t>
-  </si>
-  <si>
-    <t>Testing Login operations based on requrement</t>
-  </si>
-  <si>
-    <t>patient and physician table has existed, design GUI for retrieve the patient list and the physician list based on requirement</t>
-  </si>
-  <si>
-    <t>Testing retrieve lists based on requrement</t>
-  </si>
-  <si>
-    <t>medical staff and admin table has existed, design GUI for retrieve the admin list and the medical staff list based on requirement</t>
-  </si>
-  <si>
-    <t>Diagnostic test table has existed, design GUI for CRUD operation based on requirement</t>
-  </si>
-  <si>
-    <t>medical staff and physician relation table has not existed, design this table and GUI for CRUD operation based on requirement</t>
-  </si>
-  <si>
-    <t>on process</t>
-  </si>
-  <si>
-    <t>physician and patient relation table has existed, design  GUI for CRUD operation based on requirement</t>
-  </si>
-  <si>
-    <t>Desgin the manner to display the searching result</t>
-  </si>
-  <si>
-    <t>Modify html and javascript code to satisfy requirement</t>
-  </si>
-  <si>
-    <t>Modify backend code to satisfy front page queries</t>
-  </si>
-  <si>
-    <t>Test and debug until there is no bugs</t>
-  </si>
-  <si>
-    <t>Merge the codes with other components and test again</t>
-  </si>
-  <si>
-    <t>Modify backend API to satisfy display changes</t>
-  </si>
-  <si>
-    <t>Modify html and javascript code to display the information correctly</t>
-  </si>
-  <si>
-    <t>Test and debug</t>
-  </si>
-  <si>
-    <t>Merge the modified codes with other components together and test it again</t>
-  </si>
-  <si>
-    <t>Merge all modified components together again to test and deploy the project to the server, and then test it again</t>
-  </si>
-  <si>
-    <t>Modify physician-name search back-end method</t>
-  </si>
-  <si>
-    <t>Modify html and javascript code to show recommended physician name</t>
-  </si>
-  <si>
-    <t>put call code together and publish code into git</t>
-  </si>
-  <si>
-    <t>Modify patient-name search back-end method</t>
-  </si>
-  <si>
-    <t>Modify html and javascript code to show recommended patient name</t>
-  </si>
-  <si>
-    <t>Unit test for back-end method</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create the interface for Administrator Component to add a new physician</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create the interface for Administrator Component to change a physician</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create the interface for Administrator Component to delete a physician</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pull the drug data from Pharmacy Component</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send prescription data to Pharmacy Component</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send surgery data to Insurance Component</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send diagonstic data to Insurance Component</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>Send treatment data to Insurance Component</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>on processing</t>
+  </si>
+  <si>
+    <t>on processing</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>yufan xue</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>On process</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>get/send the data from adminnistrator component</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="12">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="14.0"/>
+      <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Times"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="8">
@@ -742,7 +820,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -794,6 +872,7 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -808,6 +887,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left/>
@@ -820,355 +900,461 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="55">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+  <cellXfs count="118">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="14" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="14" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="11" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="14" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="55">
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+          <fgColor rgb="FFCCC0D9"/>
+          <bgColor rgb="FFCCC0D9"/>
         </patternFill>
       </fill>
-      <alignment/>
       <border>
         <left/>
         <right/>
@@ -1177,14 +1363,12 @@
       </border>
     </dxf>
     <dxf>
-      <font/>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFCCC0D9"/>
-          <bgColor rgb="FFCCC0D9"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
-      <alignment/>
       <border>
         <left/>
         <right/>
@@ -1193,36 +1377,351 @@
       </border>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
-</file>
-
-<file path=xl/drawings/worksheetdrawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+  <a:themeElements>
+    <a:clrScheme name="办公室">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="办公室">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="办公室">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.14"/>
-    <col customWidth="1" min="2" max="2" width="48.43"/>
-    <col customWidth="1" min="3" max="3" width="58.86"/>
-    <col customWidth="1" min="4" max="4" width="55.0"/>
-    <col customWidth="1" min="5" max="5" width="14.43"/>
-    <col customWidth="1" min="6" max="6" width="17.43"/>
-    <col customWidth="1" min="7" max="7" width="20.71"/>
-    <col customWidth="1" min="8" max="8" width="13.43"/>
+    <col min="1" max="1" width="6.1640625" customWidth="1"/>
+    <col min="2" max="2" width="48.5" customWidth="1"/>
+    <col min="3" max="3" width="58.83203125" customWidth="1"/>
+    <col min="4" max="4" width="55" customWidth="1"/>
+    <col min="5" max="5" width="14.5" customWidth="1"/>
+    <col min="6" max="6" width="17.5" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="29.25" customHeight="1">
+    <row r="1" spans="1:8" ht="29.25" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1248,9 +1747,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8">
       <c r="A2" s="5">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>14</v>
@@ -1262,10 +1761,10 @@
         <v>16</v>
       </c>
       <c r="E2" s="9">
-        <v>42041.0</v>
+        <v>42041</v>
       </c>
       <c r="F2" s="9">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="G2" s="6" t="s">
         <v>24</v>
@@ -1274,9 +1773,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="30.0" customHeight="1">
+    <row r="3" spans="1:8" ht="30" customHeight="1">
       <c r="A3" s="5">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>14</v>
@@ -1288,10 +1787,10 @@
         <v>27</v>
       </c>
       <c r="E3" s="9">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="F3" s="9">
-        <v>42050.0</v>
+        <v>42050</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>24</v>
@@ -1300,9 +1799,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8">
       <c r="A4" s="5">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>14</v>
@@ -1314,10 +1813,10 @@
         <v>32</v>
       </c>
       <c r="E4" s="9">
-        <v>42051.0</v>
+        <v>42051</v>
       </c>
       <c r="F4" s="9">
-        <v>42055.0</v>
+        <v>42055</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>24</v>
@@ -1326,9 +1825,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="75.0" customHeight="1">
+    <row r="5" spans="1:8" ht="75" customHeight="1">
       <c r="A5" s="5">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>14</v>
@@ -1340,10 +1839,10 @@
         <v>36</v>
       </c>
       <c r="E5" s="9">
-        <v>42057.0</v>
+        <v>42057</v>
       </c>
       <c r="F5" s="9">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>24</v>
@@ -1352,9 +1851,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" ht="60.0" customHeight="1">
+    <row r="6" spans="1:8" ht="60" customHeight="1">
       <c r="A6" s="5">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>14</v>
@@ -1366,10 +1865,10 @@
         <v>38</v>
       </c>
       <c r="E6" s="9">
-        <v>42057.0</v>
+        <v>42057</v>
       </c>
       <c r="F6" s="9">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>24</v>
@@ -1378,9 +1877,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8">
       <c r="A7" s="11">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>14</v>
@@ -1392,10 +1891,10 @@
         <v>47</v>
       </c>
       <c r="E7" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F7" s="15">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>24</v>
@@ -1404,9 +1903,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="42.0" customHeight="1">
+    <row r="8" spans="1:8" ht="42" customHeight="1">
       <c r="A8" s="17">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>14</v>
@@ -1418,10 +1917,10 @@
         <v>58</v>
       </c>
       <c r="E8" s="19">
-        <v>42057.0</v>
+        <v>42057</v>
       </c>
       <c r="F8" s="19">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="G8" s="17" t="s">
         <v>24</v>
@@ -1430,9 +1929,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8">
       <c r="A9" s="11">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>14</v>
@@ -1444,10 +1943,10 @@
         <v>67</v>
       </c>
       <c r="E9" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F9" s="15">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G9" s="12" t="s">
         <v>24</v>
@@ -1456,9 +1955,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8">
       <c r="A10" s="11">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>14</v>
@@ -1470,10 +1969,10 @@
         <v>70</v>
       </c>
       <c r="E10" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F10" s="15">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G10" s="12" t="s">
         <v>24</v>
@@ -1482,9 +1981,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="42.0" customHeight="1">
+    <row r="11" spans="1:8" ht="42" customHeight="1">
       <c r="A11" s="21">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B11" s="23" t="s">
         <v>14</v>
@@ -1496,10 +1995,10 @@
         <v>78</v>
       </c>
       <c r="E11" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F11" s="15">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G11" s="23" t="s">
         <v>24</v>
@@ -1508,9 +2007,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8">
       <c r="A12" s="21">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>14</v>
@@ -1522,10 +2021,10 @@
         <v>80</v>
       </c>
       <c r="E12" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F12" s="15">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>24</v>
@@ -1534,9 +2033,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:8">
       <c r="A13" s="21">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>14</v>
@@ -1548,10 +2047,10 @@
         <v>82</v>
       </c>
       <c r="E13" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F13" s="15">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G13" s="12" t="s">
         <v>24</v>
@@ -1560,9 +2059,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" ht="48.75" customHeight="1">
+    <row r="14" spans="1:8" ht="48.75" customHeight="1">
       <c r="A14" s="21">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
         <v>14</v>
@@ -1574,10 +2073,10 @@
         <v>84</v>
       </c>
       <c r="E14" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F14" s="15">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G14" s="24" t="s">
         <v>24</v>
@@ -1586,9 +2085,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" ht="60.0" customHeight="1">
+    <row r="15" spans="1:8" ht="60" customHeight="1">
       <c r="A15" s="21">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>14</v>
@@ -1600,10 +2099,10 @@
         <v>87</v>
       </c>
       <c r="E15" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F15" s="15">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G15" s="12" t="s">
         <v>24</v>
@@ -1612,9 +2111,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="60.0" customHeight="1">
+    <row r="16" spans="1:8" ht="60" customHeight="1">
       <c r="A16" s="21">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>14</v>
@@ -1626,10 +2125,10 @@
         <v>87</v>
       </c>
       <c r="E16" s="15">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F16" s="15">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G16" s="12" t="s">
         <v>24</v>
@@ -1638,9 +2137,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="27.75" customHeight="1">
+    <row r="17" spans="1:8" ht="27.75" customHeight="1">
       <c r="A17" s="25">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>91</v>
@@ -1652,10 +2151,10 @@
         <v>97</v>
       </c>
       <c r="E17" s="29">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F17" s="30">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="G17" s="27" t="s">
         <v>29</v>
@@ -1664,9 +2163,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="27.75" customHeight="1">
+    <row r="18" spans="1:8" ht="27.75" customHeight="1">
       <c r="A18" s="25">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B18" s="26" t="s">
         <v>91</v>
@@ -1678,10 +2177,10 @@
         <v>103</v>
       </c>
       <c r="E18" s="29">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F18" s="30">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="G18" s="31" t="s">
         <v>29</v>
@@ -1690,9 +2189,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" ht="27.75" customHeight="1">
+    <row r="19" spans="1:8" ht="27.75" customHeight="1">
       <c r="A19" s="25">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="26" t="s">
         <v>91</v>
@@ -1704,10 +2203,10 @@
         <v>106</v>
       </c>
       <c r="E19" s="29">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F19" s="30">
-        <v>42102.0</v>
+        <v>42102</v>
       </c>
       <c r="G19" s="27" t="s">
         <v>29</v>
@@ -1716,9 +2215,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" ht="27.75" customHeight="1">
+    <row r="20" spans="1:8" ht="27.75" customHeight="1">
       <c r="A20" s="32">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B20" s="26" t="s">
         <v>91</v>
@@ -1730,10 +2229,10 @@
         <v>110</v>
       </c>
       <c r="E20" s="29">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F20" s="30">
-        <v>42102.0</v>
+        <v>42102</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>29</v>
@@ -1742,9 +2241,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" ht="27.75" customHeight="1">
+    <row r="21" spans="1:8" ht="27.75" customHeight="1">
       <c r="A21" s="32">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B21" s="27" t="s">
         <v>91</v>
@@ -1756,10 +2255,10 @@
         <v>112</v>
       </c>
       <c r="E21" s="29">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F21" s="30">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="G21" s="31" t="s">
         <v>113</v>
@@ -1768,9 +2267,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" ht="27.75" customHeight="1">
+    <row r="22" spans="1:8" ht="27.75" customHeight="1">
       <c r="A22" s="32">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B22" s="26" t="s">
         <v>91</v>
@@ -1782,10 +2281,10 @@
         <v>115</v>
       </c>
       <c r="E22" s="29">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F22" s="30">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="G22" s="31" t="s">
         <v>113</v>
@@ -1794,9 +2293,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="27.75" customHeight="1">
+    <row r="23" spans="1:8" ht="27.75" customHeight="1">
       <c r="A23" s="32">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>91</v>
@@ -1808,10 +2307,10 @@
         <v>117</v>
       </c>
       <c r="E23" s="29">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F23" s="30">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="G23" s="31" t="s">
         <v>29</v>
@@ -1820,9 +2319,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="27.75" customHeight="1">
+    <row r="24" spans="1:8" ht="27.75" customHeight="1">
       <c r="A24" s="32">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>91</v>
@@ -1834,10 +2333,10 @@
         <v>119</v>
       </c>
       <c r="E24" s="29">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F24" s="30">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="G24" s="31" t="s">
         <v>113</v>
@@ -1846,9 +2345,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="27.75" customHeight="1">
+    <row r="25" spans="1:8" ht="27.75" customHeight="1">
       <c r="A25" s="32">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B25" s="27" t="s">
         <v>91</v>
@@ -1860,10 +2359,10 @@
         <v>122</v>
       </c>
       <c r="E25" s="34">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F25" s="35">
-        <v>42092.0</v>
+        <v>42092</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>113</v>
@@ -1872,9 +2371,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="90.0" customHeight="1">
+    <row r="26" spans="1:8" ht="90" customHeight="1">
       <c r="A26" s="40">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B26" s="41" t="s">
         <v>129</v>
@@ -1886,10 +2385,10 @@
         <v>133</v>
       </c>
       <c r="E26" s="46">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F26" s="46">
-        <v>42092.0</v>
+        <v>42092</v>
       </c>
       <c r="G26" s="48" t="s">
         <v>24</v>
@@ -1898,9 +2397,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="40">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B27" s="41" t="s">
         <v>129</v>
@@ -1910,10 +2409,10 @@
       </c>
       <c r="D27" s="42"/>
       <c r="E27" s="46">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F27" s="46">
-        <v>42092.0</v>
+        <v>42092</v>
       </c>
       <c r="G27" s="48" t="s">
         <v>24</v>
@@ -1922,9 +2421,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" ht="30.0" customHeight="1">
+    <row r="28" spans="1:8" ht="30" customHeight="1">
       <c r="A28" s="40">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>129</v>
@@ -1936,10 +2435,10 @@
         <v>137</v>
       </c>
       <c r="E28" s="46">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F28" s="46">
-        <v>42092.0</v>
+        <v>42092</v>
       </c>
       <c r="G28" s="48" t="s">
         <v>24</v>
@@ -1948,9 +2447,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="40">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>129</v>
@@ -1960,10 +2459,10 @@
       </c>
       <c r="D29" s="42"/>
       <c r="E29" s="46">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F29" s="46">
-        <v>42092.0</v>
+        <v>42092</v>
       </c>
       <c r="G29" s="48" t="s">
         <v>24</v>
@@ -1972,9 +2471,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" ht="90.0" customHeight="1">
+    <row r="30" spans="1:8" ht="90" customHeight="1">
       <c r="A30" s="40">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B30" s="41" t="s">
         <v>129</v>
@@ -1986,10 +2485,10 @@
         <v>140</v>
       </c>
       <c r="E30" s="46">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="F30" s="46">
-        <v>42092.0</v>
+        <v>42092</v>
       </c>
       <c r="G30" s="48" t="s">
         <v>24</v>
@@ -1998,9 +2497,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="50">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>91</v>
@@ -2012,10 +2511,10 @@
         <v>145</v>
       </c>
       <c r="E31" s="53">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="F31" s="53">
-        <v>42104.0</v>
+        <v>42104</v>
       </c>
       <c r="G31" s="37" t="s">
         <v>41</v>
@@ -2024,9 +2523,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="50">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B32" s="37" t="s">
         <v>91</v>
@@ -2038,10 +2537,10 @@
         <v>152</v>
       </c>
       <c r="E32" s="53">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="F32" s="53">
-        <v>42105.0</v>
+        <v>42105</v>
       </c>
       <c r="G32" s="37" t="s">
         <v>41</v>
@@ -2050,9 +2549,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="50">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B33" s="37" t="s">
         <v>91</v>
@@ -2064,10 +2563,10 @@
         <v>157</v>
       </c>
       <c r="E33" s="53">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="F33" s="53">
-        <v>42106.0</v>
+        <v>42106</v>
       </c>
       <c r="G33" s="37" t="s">
         <v>158</v>
@@ -2076,9 +2575,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="50">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>91</v>
@@ -2090,10 +2589,10 @@
         <v>161</v>
       </c>
       <c r="E34" s="53">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="F34" s="53">
-        <v>42107.0</v>
+        <v>42107</v>
       </c>
       <c r="G34" s="37" t="s">
         <v>158</v>
@@ -2102,9 +2601,9 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="54">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B35" s="51" t="s">
         <v>91</v>
@@ -2116,10 +2615,10 @@
         <v>166</v>
       </c>
       <c r="E35" s="55">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="F35" s="55">
-        <v>42104.0</v>
+        <v>42104</v>
       </c>
       <c r="G35" s="51" t="s">
         <v>41</v>
@@ -2128,83 +2627,83 @@
         <v>107</v>
       </c>
     </row>
-    <row r="36" ht="90.0" customHeight="1">
+    <row r="36" spans="1:8" ht="90" customHeight="1">
       <c r="A36" s="40">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B36" s="40" t="s">
         <v>169</v>
       </c>
       <c r="C36" s="57" t="s">
-        <v>170</v>
+        <v>230</v>
       </c>
       <c r="D36" s="58" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E36" s="59">
-        <v>42100.0</v>
+        <v>42100</v>
       </c>
       <c r="F36" s="59">
-        <v>42105.0</v>
+        <v>42114</v>
       </c>
       <c r="G36" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" ht="90.0" customHeight="1">
+      <c r="H36" s="41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="90" customHeight="1">
       <c r="A37" s="40">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B37" s="40" t="s">
         <v>169</v>
       </c>
       <c r="C37" s="57" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D37" s="58" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E37" s="59">
-        <v>42100.0</v>
+        <v>42100</v>
       </c>
       <c r="F37" s="59">
-        <v>42102.0</v>
+        <v>42114</v>
       </c>
       <c r="G37" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" ht="90.0" customHeight="1">
+      <c r="H37" s="41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="90" customHeight="1">
       <c r="A38" s="40">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B38" s="40" t="s">
         <v>169</v>
       </c>
       <c r="C38" s="57" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="D38" s="44"/>
       <c r="E38" s="59">
-        <v>42100.0</v>
+        <v>42100</v>
       </c>
       <c r="F38" s="59">
-        <v>42102.0</v>
+        <v>42114</v>
       </c>
       <c r="G38" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="H38" s="60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
+      <c r="H38" s="41" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="61"/>
       <c r="B39" s="66"/>
       <c r="C39" s="66"/>
@@ -2214,7 +2713,7 @@
       <c r="G39" s="66"/>
       <c r="H39" s="66"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="61"/>
       <c r="B40" s="66"/>
       <c r="C40" s="66"/>
@@ -2224,7 +2723,7 @@
       <c r="G40" s="66"/>
       <c r="H40" s="66"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="61"/>
       <c r="B41" s="66"/>
       <c r="C41" s="66"/>
@@ -2234,7 +2733,7 @@
       <c r="G41" s="66"/>
       <c r="H41" s="66"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="61"/>
       <c r="B42" s="66"/>
       <c r="C42" s="66"/>
@@ -2244,7 +2743,7 @@
       <c r="G42" s="66"/>
       <c r="H42" s="66"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="61"/>
       <c r="B43" s="66"/>
       <c r="C43" s="66"/>
@@ -2254,7 +2753,7 @@
       <c r="G43" s="66"/>
       <c r="H43" s="66"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="61"/>
       <c r="B44" s="66"/>
       <c r="C44" s="66"/>
@@ -2264,7 +2763,7 @@
       <c r="G44" s="66"/>
       <c r="H44" s="66"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="61"/>
       <c r="B45" s="66"/>
       <c r="C45" s="66"/>
@@ -2274,7 +2773,7 @@
       <c r="G45" s="66"/>
       <c r="H45" s="66"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="61"/>
       <c r="B46" s="66"/>
       <c r="C46" s="66"/>
@@ -2284,9 +2783,11 @@
       <c r="G46" s="66"/>
       <c r="H46" s="66"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="61"/>
-      <c r="B47" s="66"/>
+      <c r="B47" s="68" t="s">
+        <v>181</v>
+      </c>
       <c r="C47" s="66"/>
       <c r="D47" s="66"/>
       <c r="E47" s="66"/>
@@ -2294,10 +2795,10 @@
       <c r="G47" s="66"/>
       <c r="H47" s="66"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:8" ht="15.75" customHeight="1">
       <c r="A48" s="61"/>
-      <c r="B48" s="68" t="s">
-        <v>184</v>
+      <c r="B48" s="70" t="s">
+        <v>183</v>
       </c>
       <c r="C48" s="66"/>
       <c r="D48" s="66"/>
@@ -2306,11 +2807,9 @@
       <c r="G48" s="66"/>
       <c r="H48" s="66"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:8" ht="15.75" customHeight="1">
       <c r="A49" s="61"/>
-      <c r="B49" s="70" t="s">
-        <v>186</v>
-      </c>
+      <c r="B49" s="66"/>
       <c r="C49" s="66"/>
       <c r="D49" s="66"/>
       <c r="E49" s="66"/>
@@ -2318,7 +2817,7 @@
       <c r="G49" s="66"/>
       <c r="H49" s="66"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:8" ht="15.75" customHeight="1">
       <c r="A50" s="61"/>
       <c r="B50" s="66"/>
       <c r="C50" s="66"/>
@@ -2328,7 +2827,7 @@
       <c r="G50" s="66"/>
       <c r="H50" s="66"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="61"/>
       <c r="B51" s="66"/>
       <c r="C51" s="66"/>
@@ -2338,7 +2837,7 @@
       <c r="G51" s="66"/>
       <c r="H51" s="66"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="61"/>
       <c r="B52" s="66"/>
       <c r="C52" s="66"/>
@@ -2348,7 +2847,7 @@
       <c r="G52" s="66"/>
       <c r="H52" s="66"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="61"/>
       <c r="B53" s="66"/>
       <c r="C53" s="66"/>
@@ -2358,7 +2857,7 @@
       <c r="G53" s="66"/>
       <c r="H53" s="66"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="61"/>
       <c r="B54" s="66"/>
       <c r="C54" s="66"/>
@@ -2368,7 +2867,7 @@
       <c r="G54" s="66"/>
       <c r="H54" s="66"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="61"/>
       <c r="B55" s="66"/>
       <c r="C55" s="66"/>
@@ -2378,7 +2877,7 @@
       <c r="G55" s="66"/>
       <c r="H55" s="66"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="61"/>
       <c r="B56" s="66"/>
       <c r="C56" s="66"/>
@@ -2388,7 +2887,7 @@
       <c r="G56" s="66"/>
       <c r="H56" s="66"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="61"/>
       <c r="B57" s="66"/>
       <c r="C57" s="66"/>
@@ -2398,7 +2897,7 @@
       <c r="G57" s="66"/>
       <c r="H57" s="66"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="61"/>
       <c r="B58" s="66"/>
       <c r="C58" s="66"/>
@@ -2408,7 +2907,7 @@
       <c r="G58" s="66"/>
       <c r="H58" s="66"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="61"/>
       <c r="B59" s="66"/>
       <c r="C59" s="66"/>
@@ -2418,7 +2917,7 @@
       <c r="G59" s="66"/>
       <c r="H59" s="66"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="61"/>
       <c r="B60" s="66"/>
       <c r="C60" s="66"/>
@@ -2428,7 +2927,7 @@
       <c r="G60" s="66"/>
       <c r="H60" s="66"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="61"/>
       <c r="B61" s="66"/>
       <c r="C61" s="66"/>
@@ -2438,7 +2937,7 @@
       <c r="G61" s="66"/>
       <c r="H61" s="66"/>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="61"/>
       <c r="B62" s="66"/>
       <c r="C62" s="66"/>
@@ -2448,7 +2947,7 @@
       <c r="G62" s="66"/>
       <c r="H62" s="66"/>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="61"/>
       <c r="B63" s="66"/>
       <c r="C63" s="66"/>
@@ -2458,7 +2957,7 @@
       <c r="G63" s="66"/>
       <c r="H63" s="66"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="61"/>
       <c r="B64" s="66"/>
       <c r="C64" s="66"/>
@@ -2468,7 +2967,7 @@
       <c r="G64" s="66"/>
       <c r="H64" s="66"/>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="61"/>
       <c r="B65" s="66"/>
       <c r="C65" s="66"/>
@@ -2478,7 +2977,7 @@
       <c r="G65" s="66"/>
       <c r="H65" s="66"/>
     </row>
-    <row r="66" ht="15.75" customHeight="1">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="61"/>
       <c r="B66" s="66"/>
       <c r="C66" s="66"/>
@@ -2488,7 +2987,7 @@
       <c r="G66" s="66"/>
       <c r="H66" s="66"/>
     </row>
-    <row r="67" ht="15.75" customHeight="1">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="61"/>
       <c r="B67" s="66"/>
       <c r="C67" s="66"/>
@@ -2498,7 +2997,7 @@
       <c r="G67" s="66"/>
       <c r="H67" s="66"/>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="61"/>
       <c r="B68" s="66"/>
       <c r="C68" s="66"/>
@@ -2508,7 +3007,7 @@
       <c r="G68" s="66"/>
       <c r="H68" s="66"/>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="61"/>
       <c r="B69" s="66"/>
       <c r="C69" s="66"/>
@@ -2518,7 +3017,7 @@
       <c r="G69" s="66"/>
       <c r="H69" s="66"/>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="61"/>
       <c r="B70" s="66"/>
       <c r="C70" s="66"/>
@@ -2528,59 +3027,59 @@
       <c r="G70" s="66"/>
       <c r="H70" s="66"/>
     </row>
-    <row r="71" ht="16.5" customHeight="1">
-      <c r="A71" s="61"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
-    </row>
-    <row r="72" ht="29.25" customHeight="1">
-      <c r="A72" s="73"/>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-    </row>
-    <row r="73" ht="78.75" customHeight="1">
-      <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="74"/>
-      <c r="E73" s="75"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
+    <row r="71" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A71" s="73"/>
+      <c r="B71" s="73"/>
+      <c r="C71" s="73"/>
+      <c r="D71" s="73"/>
+      <c r="E71" s="73"/>
+      <c r="F71" s="73"/>
+      <c r="G71" s="73"/>
+      <c r="H71" s="73"/>
+    </row>
+    <row r="72" spans="1:8" ht="78.75" customHeight="1">
+      <c r="A72" s="66"/>
+      <c r="B72" s="66"/>
+      <c r="C72" s="66"/>
+      <c r="D72" s="74"/>
+      <c r="E72" s="75"/>
+      <c r="F72" s="66"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="66"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H264"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A239" workbookViewId="0">
+      <selection activeCell="C252" sqref="C252:H261"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="17.29" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.86"/>
-    <col customWidth="1" min="2" max="2" width="19.14"/>
-    <col customWidth="1" min="3" max="3" width="99.86"/>
-    <col customWidth="1" min="4" max="4" width="16.43"/>
-    <col customWidth="1" min="5" max="5" width="35.0"/>
-    <col customWidth="1" min="6" max="6" width="16.14"/>
-    <col customWidth="1" min="7" max="7" width="25.71"/>
-    <col customWidth="1" min="8" max="8" width="15.0"/>
+    <col min="1" max="1" width="6.83203125" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" customWidth="1"/>
+    <col min="3" max="3" width="99.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" customHeight="1">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2606,24 +3105,24 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:8" ht="15.75" customHeight="1">
       <c r="A2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8">
-        <v>42036.0</v>
+        <v>42036</v>
       </c>
       <c r="E2" s="8">
-        <v>42037.0</v>
+        <v>42037</v>
       </c>
       <c r="F2" s="8">
-        <v>42037.0</v>
+        <v>42037</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
@@ -2632,24 +3131,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" ht="15.75" customHeight="1">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1">
       <c r="A3" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="8">
-        <v>42037.0</v>
+        <v>42037</v>
       </c>
       <c r="E3" s="8">
-        <v>42038.0</v>
+        <v>42038</v>
       </c>
       <c r="F3" s="8">
-        <v>42038.0</v>
+        <v>42038</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>20</v>
@@ -2658,24 +3157,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:8" ht="15.75" customHeight="1">
       <c r="A4" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="8">
-        <v>42038.0</v>
+        <v>42038</v>
       </c>
       <c r="E4" s="8">
-        <v>42044.0</v>
+        <v>42044</v>
       </c>
       <c r="F4" s="8">
-        <v>42044.0</v>
+        <v>42044</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>22</v>
@@ -2684,7 +3183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:8" ht="15.75" customHeight="1">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="7"/>
@@ -2694,24 +3193,24 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:8" ht="15.75" customHeight="1">
       <c r="A6" s="4">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
       <c r="D6" s="8">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="E6" s="8">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="F6" s="8">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>17</v>
@@ -2720,24 +3219,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:8" ht="15.75" customHeight="1">
       <c r="A7" s="4">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D7" s="8">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="E7" s="8">
-        <v>42048.0</v>
+        <v>42048</v>
       </c>
       <c r="F7" s="8">
-        <v>42048.0</v>
+        <v>42048</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>20</v>
@@ -2746,24 +3245,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:8" ht="15.75" customHeight="1">
       <c r="A8" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="8">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="E8" s="8">
-        <v>42048.0</v>
+        <v>42048</v>
       </c>
       <c r="F8" s="8">
-        <v>42048.0</v>
+        <v>42048</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>29</v>
@@ -2772,24 +3271,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:8" ht="15.75" customHeight="1">
       <c r="A9" s="4">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="8">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="E9" s="8">
-        <v>42048.0</v>
+        <v>42048</v>
       </c>
       <c r="F9" s="8">
-        <v>42048.0</v>
+        <v>42048</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>17</v>
@@ -2798,24 +3297,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:8" ht="15.75" customHeight="1">
       <c r="A10" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D10" s="8">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="E10" s="8">
-        <v>42049.0</v>
+        <v>42049</v>
       </c>
       <c r="F10" s="8">
-        <v>42049.0</v>
+        <v>42049</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>17</v>
@@ -2824,24 +3323,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:8" ht="15.75" customHeight="1">
       <c r="A11" s="4">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="8">
-        <v>42045.0</v>
+        <v>42045</v>
       </c>
       <c r="E11" s="8">
-        <v>42050.0</v>
+        <v>42050</v>
       </c>
       <c r="F11" s="8">
-        <v>42050.0</v>
+        <v>42050</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>17</v>
@@ -2850,24 +3349,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:8" ht="15.75" customHeight="1">
       <c r="A12" s="4">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>35</v>
       </c>
       <c r="D12" s="8">
-        <v>42050.0</v>
+        <v>42050</v>
       </c>
       <c r="E12" s="8">
-        <v>42050.0</v>
+        <v>42050</v>
       </c>
       <c r="F12" s="8">
-        <v>42050.0</v>
+        <v>42050</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>20</v>
@@ -2876,7 +3375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:8" ht="15.75" customHeight="1">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -2886,24 +3385,24 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:8" ht="15.75" customHeight="1">
       <c r="A14" s="4">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>39</v>
       </c>
       <c r="D14" s="8">
-        <v>42051.0</v>
+        <v>42051</v>
       </c>
       <c r="E14" s="8">
-        <v>42051.0</v>
+        <v>42051</v>
       </c>
       <c r="F14" s="8">
-        <v>42051.0</v>
+        <v>42051</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>17</v>
@@ -2912,24 +3411,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:8" ht="15.75" customHeight="1">
       <c r="A15" s="4">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D15" s="8">
-        <v>42051.0</v>
+        <v>42051</v>
       </c>
       <c r="E15" s="8">
-        <v>42053.0</v>
+        <v>42053</v>
       </c>
       <c r="F15" s="8">
-        <v>42053.0</v>
+        <v>42053</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>17</v>
@@ -2938,24 +3437,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:8" ht="15.75" customHeight="1">
       <c r="A16" s="4">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D16" s="8">
-        <v>42052.0</v>
+        <v>42052</v>
       </c>
       <c r="E16" s="8">
-        <v>42054.0</v>
+        <v>42054</v>
       </c>
       <c r="F16" s="8">
-        <v>42054.0</v>
+        <v>42054</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>41</v>
@@ -2964,24 +3463,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:8" ht="15.75" customHeight="1">
       <c r="A17" s="4">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>42</v>
       </c>
       <c r="D17" s="8">
-        <v>42052.0</v>
+        <v>42052</v>
       </c>
       <c r="E17" s="8">
-        <v>42054.0</v>
+        <v>42054</v>
       </c>
       <c r="F17" s="8">
-        <v>42054.0</v>
+        <v>42054</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>43</v>
@@ -2990,24 +3489,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:8" ht="15.75" customHeight="1">
       <c r="A18" s="4">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>44</v>
       </c>
       <c r="D18" s="8">
-        <v>42052.0</v>
+        <v>42052</v>
       </c>
       <c r="E18" s="8">
-        <v>42055.0</v>
+        <v>42055</v>
       </c>
       <c r="F18" s="8">
-        <v>42055.0</v>
+        <v>42055</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>41</v>
@@ -3016,24 +3515,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1">
       <c r="A19" s="4">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="D19" s="8">
-        <v>42055.0</v>
+        <v>42055</v>
       </c>
       <c r="E19" s="8">
-        <v>42057.0</v>
+        <v>42057</v>
       </c>
       <c r="F19" s="8">
-        <v>42057.0</v>
+        <v>42057</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>17</v>
@@ -3042,24 +3541,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:8" ht="15.75" customHeight="1">
       <c r="A20" s="4">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D20" s="8">
-        <v>42057.0</v>
+        <v>42057</v>
       </c>
       <c r="E20" s="8">
-        <v>42059.0</v>
+        <v>42059</v>
       </c>
       <c r="F20" s="8">
-        <v>42059.0</v>
+        <v>42059</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>17</v>
@@ -3068,7 +3567,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:8" ht="15.75" customHeight="1">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -3078,24 +3577,24 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:8" ht="15.75" customHeight="1">
       <c r="A22" s="10">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B22" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>48</v>
       </c>
       <c r="D22" s="14">
-        <v>42059.0</v>
+        <v>42059</v>
       </c>
       <c r="E22" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="F22" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>49</v>
@@ -3104,24 +3603,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:8" ht="15.75" customHeight="1">
       <c r="A23" s="10">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B23" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>50</v>
       </c>
       <c r="D23" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="E23" s="14">
-        <v>42061.0</v>
+        <v>42061</v>
       </c>
       <c r="F23" s="14">
-        <v>42061.0</v>
+        <v>42061</v>
       </c>
       <c r="G23" s="10" t="s">
         <v>49</v>
@@ -3130,24 +3629,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:8" ht="15.75" customHeight="1">
       <c r="A24" s="10">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B24" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>51</v>
       </c>
       <c r="D24" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="E24" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="F24" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="G24" s="10" t="s">
         <v>52</v>
@@ -3156,24 +3655,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:8" ht="15.75" customHeight="1">
       <c r="A25" s="10">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B25" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="E25" s="16">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="F25" s="16">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>54</v>
@@ -3182,24 +3681,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:8" ht="15.75" customHeight="1">
       <c r="A26" s="10">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B26" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C26" s="10" t="s">
         <v>55</v>
       </c>
       <c r="D26" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="E26" s="16">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="F26" s="16">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="G26" s="10" t="s">
         <v>52</v>
@@ -3208,24 +3707,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:8" ht="15.75" customHeight="1">
       <c r="A27" s="10">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B27" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C27" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D27" s="16">
-        <v>42064.0</v>
+        <v>42064</v>
       </c>
       <c r="E27" s="16">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="F27" s="16">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>49</v>
@@ -3234,24 +3733,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:8" ht="15.75" customHeight="1">
       <c r="A28" s="10">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B28" s="10">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="16">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="E28" s="16">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F28" s="16">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>54</v>
@@ -3260,7 +3759,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:8" ht="15.75" customHeight="1">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -3270,24 +3769,24 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:8" ht="15.75" customHeight="1">
       <c r="A30" s="10">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B30" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D30" s="14">
-        <v>42059.0</v>
+        <v>42059</v>
       </c>
       <c r="E30" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="F30" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="G30" s="10" t="s">
         <v>49</v>
@@ -3296,24 +3795,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:8" ht="15.75" customHeight="1">
       <c r="A31" s="10">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B31" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>60</v>
       </c>
       <c r="D31" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="E31" s="14">
-        <v>42061.0</v>
+        <v>42061</v>
       </c>
       <c r="F31" s="14">
-        <v>42061.0</v>
+        <v>42061</v>
       </c>
       <c r="G31" s="10" t="s">
         <v>49</v>
@@ -3322,24 +3821,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:8" ht="15.75" customHeight="1">
       <c r="A32" s="10">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B32" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>61</v>
       </c>
       <c r="D32" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="E32" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="F32" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="G32" s="10" t="s">
         <v>54</v>
@@ -3348,24 +3847,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:8" ht="15.75" customHeight="1">
       <c r="A33" s="10">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B33" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>62</v>
       </c>
       <c r="D33" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="E33" s="14">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="F33" s="14">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="G33" s="10" t="s">
         <v>52</v>
@@ -3374,24 +3873,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:8" ht="15.75" customHeight="1">
       <c r="A34" s="10">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B34" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>63</v>
       </c>
       <c r="D34" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="E34" s="14">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="F34" s="14">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="G34" s="10" t="s">
         <v>54</v>
@@ -3400,24 +3899,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:8" ht="15.75" customHeight="1">
       <c r="A35" s="10">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B35" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D35" s="14">
-        <v>42064.0</v>
+        <v>42064</v>
       </c>
       <c r="E35" s="14">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="F35" s="14">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="G35" s="10" t="s">
         <v>49</v>
@@ -3426,24 +3925,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:8" ht="15.75" customHeight="1">
       <c r="A36" s="10">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B36" s="10">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C36" s="10" t="s">
         <v>64</v>
       </c>
       <c r="D36" s="14">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="E36" s="14">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F36" s="14">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="G36" s="10" t="s">
         <v>54</v>
@@ -3452,7 +3951,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:8" ht="15.75" customHeight="1">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -3462,24 +3961,24 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:8" ht="15.75" customHeight="1">
       <c r="A38" s="10">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B38" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>59</v>
       </c>
       <c r="D38" s="14">
-        <v>42059.0</v>
+        <v>42059</v>
       </c>
       <c r="E38" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="F38" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="G38" s="10" t="s">
         <v>49</v>
@@ -3488,24 +3987,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:8" ht="15.75" customHeight="1">
       <c r="A39" s="10">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B39" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>25</v>
       </c>
       <c r="D39" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="E39" s="14">
-        <v>42061.0</v>
+        <v>42061</v>
       </c>
       <c r="F39" s="14">
-        <v>42061.0</v>
+        <v>42061</v>
       </c>
       <c r="G39" s="10" t="s">
         <v>49</v>
@@ -3514,24 +4013,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:8" ht="15.75" customHeight="1">
       <c r="A40" s="10">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B40" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>65</v>
       </c>
       <c r="D40" s="14">
-        <v>42060.0</v>
+        <v>42060</v>
       </c>
       <c r="E40" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="F40" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="G40" s="10" t="s">
         <v>52</v>
@@ -3540,24 +4039,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:8" ht="15.75" customHeight="1">
       <c r="A41" s="10">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B41" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>68</v>
       </c>
       <c r="D41" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="E41" s="14">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="F41" s="14">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>54</v>
@@ -3566,24 +4065,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:8" ht="15.75" customHeight="1">
       <c r="A42" s="10">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B42" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>71</v>
       </c>
       <c r="D42" s="14">
-        <v>42062.0</v>
+        <v>42062</v>
       </c>
       <c r="E42" s="14">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="F42" s="14">
-        <v>42063.0</v>
+        <v>42063</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>52</v>
@@ -3592,24 +4091,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:8" ht="15.75" customHeight="1">
       <c r="A43" s="10">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B43" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>33</v>
       </c>
       <c r="D43" s="14">
-        <v>42064.0</v>
+        <v>42064</v>
       </c>
       <c r="E43" s="14">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="F43" s="14">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>49</v>
@@ -3618,24 +4117,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:8" ht="15.75" customHeight="1">
       <c r="A44" s="10">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B44" s="10">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>72</v>
       </c>
       <c r="D44" s="14">
-        <v>42065.0</v>
+        <v>42065</v>
       </c>
       <c r="E44" s="14">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="F44" s="14">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="G44" s="10" t="s">
         <v>54</v>
@@ -3644,7 +4143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:8" ht="15.75" customHeight="1">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -3654,24 +4153,24 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:8" ht="15.75" customHeight="1">
       <c r="A46" s="13">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B46" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>73</v>
       </c>
       <c r="D46" s="22">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="E46" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="F46" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="G46" s="13" t="s">
         <v>49</v>
@@ -3680,24 +4179,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:8" ht="15.75" customHeight="1">
       <c r="A47" s="13">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B47" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D47" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E47" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F47" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>49</v>
@@ -3706,24 +4205,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" ht="30.0" customHeight="1">
+    <row r="48" spans="1:8" ht="30" customHeight="1">
       <c r="A48" s="13">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B48" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>74</v>
       </c>
       <c r="D48" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E48" s="22">
-        <v>42072.0</v>
+        <v>42072</v>
       </c>
       <c r="F48" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G48" s="13" t="s">
         <v>49</v>
@@ -3732,24 +4231,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8">
       <c r="A49" s="13">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B49" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>75</v>
       </c>
       <c r="D49" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E49" s="22">
-        <v>42072.0</v>
+        <v>42072</v>
       </c>
       <c r="F49" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>49</v>
@@ -3758,24 +4257,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" ht="30.0" customHeight="1">
+    <row r="50" spans="1:8" ht="30" customHeight="1">
       <c r="A50" s="13">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B50" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>77</v>
       </c>
       <c r="D50" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E50" s="22">
-        <v>42072.0</v>
+        <v>42072</v>
       </c>
       <c r="F50" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G50" s="13" t="s">
         <v>49</v>
@@ -3784,24 +4283,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:8" ht="15.75" customHeight="1">
       <c r="A51" s="13">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B51" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>79</v>
       </c>
       <c r="D51" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E51" s="22">
-        <v>42072.0</v>
+        <v>42072</v>
       </c>
       <c r="F51" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G51" s="13" t="s">
         <v>49</v>
@@ -3810,24 +4309,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:8" ht="15.75" customHeight="1">
       <c r="A52" s="13">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B52" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D52" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E52" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F52" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G52" s="13" t="s">
         <v>49</v>
@@ -3836,24 +4335,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="13">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B53" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D53" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E53" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F53" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G53" s="13" t="s">
         <v>49</v>
@@ -3862,24 +4361,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="13">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B54" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>81</v>
       </c>
       <c r="D54" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E54" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F54" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G54" s="13" t="s">
         <v>49</v>
@@ -3888,7 +4387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -3898,24 +4397,24 @@
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="13">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B56" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>86</v>
       </c>
       <c r="D56" s="22">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="E56" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="F56" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="G56" s="13" t="s">
         <v>49</v>
@@ -3924,24 +4423,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="13">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B57" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D57" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E57" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F57" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>49</v>
@@ -3950,24 +4449,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="13">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B58" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>89</v>
       </c>
       <c r="D58" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E58" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F58" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G58" s="13" t="s">
         <v>49</v>
@@ -3976,24 +4475,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="13">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B59" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D59" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E59" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F59" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>49</v>
@@ -4002,24 +4501,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="13">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B60" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D60" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E60" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F60" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G60" s="13" t="s">
         <v>49</v>
@@ -4028,24 +4527,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="13">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B61" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D61" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E61" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F61" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G61" s="13" t="s">
         <v>49</v>
@@ -4054,24 +4553,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" ht="15.75" customHeight="1">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="13">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B62" s="13">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>92</v>
       </c>
       <c r="D62" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E62" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F62" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G62" s="13" t="s">
         <v>49</v>
@@ -4080,7 +4579,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" ht="15.75" customHeight="1">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -4090,24 +4589,24 @@
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
     </row>
-    <row r="64" ht="15.75" customHeight="1">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="13">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B64" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>93</v>
       </c>
       <c r="D64" s="22">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="E64" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="F64" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="G64" s="13" t="s">
         <v>49</v>
@@ -4116,24 +4615,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" ht="15.75" customHeight="1">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="13">
-        <v>56.0</v>
+        <v>56</v>
       </c>
       <c r="B65" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D65" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E65" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F65" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G65" s="13" t="s">
         <v>49</v>
@@ -4142,24 +4641,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8">
       <c r="A66" s="13">
-        <v>57.0</v>
+        <v>57</v>
       </c>
       <c r="B66" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>94</v>
       </c>
       <c r="D66" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E66" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F66" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G66" s="13" t="s">
         <v>49</v>
@@ -4168,24 +4667,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8">
       <c r="A67" s="13">
-        <v>58.0</v>
+        <v>58</v>
       </c>
       <c r="B67" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D67" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E67" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F67" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G67" s="13" t="s">
         <v>49</v>
@@ -4194,24 +4693,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" ht="15.75" customHeight="1">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="13">
-        <v>59.0</v>
+        <v>59</v>
       </c>
       <c r="B68" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D68" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E68" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F68" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G68" s="13" t="s">
         <v>49</v>
@@ -4220,24 +4719,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" ht="15.75" customHeight="1">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="13">
-        <v>60.0</v>
+        <v>60</v>
       </c>
       <c r="B69" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D69" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E69" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F69" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G69" s="13" t="s">
         <v>49</v>
@@ -4246,24 +4745,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" ht="15.75" customHeight="1">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="13">
-        <v>61.0</v>
+        <v>61</v>
       </c>
       <c r="B70" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>96</v>
       </c>
       <c r="D70" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E70" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F70" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G70" s="13" t="s">
         <v>49</v>
@@ -4272,7 +4771,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" ht="15.75" customHeight="1">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -4282,24 +4781,24 @@
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
     </row>
-    <row r="72" ht="15.75" customHeight="1">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
       <c r="A72" s="13">
-        <v>62.0</v>
+        <v>62</v>
       </c>
       <c r="B72" s="13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D72" s="22">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="E72" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="F72" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="G72" s="13" t="s">
         <v>49</v>
@@ -4308,24 +4807,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" ht="15.75" customHeight="1">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73" s="13">
-        <v>63.0</v>
+        <v>63</v>
       </c>
       <c r="B73" s="13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D73" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E73" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F73" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G73" s="13" t="s">
         <v>49</v>
@@ -4334,24 +4833,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" ht="30.0" customHeight="1">
+    <row r="74" spans="1:8" ht="30" customHeight="1">
       <c r="A74" s="13">
-        <v>64.0</v>
+        <v>64</v>
       </c>
       <c r="B74" s="13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>99</v>
       </c>
       <c r="D74" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E74" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F74" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G74" s="13" t="s">
         <v>49</v>
@@ -4360,24 +4859,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8">
       <c r="A75" s="13">
-        <v>65.0</v>
+        <v>65</v>
       </c>
       <c r="B75" s="13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D75" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E75" s="22">
-        <v>42072.0</v>
+        <v>42072</v>
       </c>
       <c r="F75" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G75" s="13" t="s">
         <v>49</v>
@@ -4386,24 +4885,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" ht="31.5" customHeight="1">
+    <row r="76" spans="1:8" ht="31.5" customHeight="1">
       <c r="A76" s="13">
-        <v>66.0</v>
+        <v>66</v>
       </c>
       <c r="B76" s="13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D76" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E76" s="22">
-        <v>42072.0</v>
+        <v>42072</v>
       </c>
       <c r="F76" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G76" s="13" t="s">
         <v>49</v>
@@ -4412,24 +4911,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8">
       <c r="A77" s="13">
-        <v>67.0</v>
+        <v>67</v>
       </c>
       <c r="B77" s="13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D77" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E77" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F77" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G77" s="13" t="s">
         <v>49</v>
@@ -4438,24 +4937,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" ht="31.5" customHeight="1">
+    <row r="78" spans="1:8" ht="31.5" customHeight="1">
       <c r="A78" s="13">
-        <v>68.0</v>
+        <v>68</v>
       </c>
       <c r="B78" s="13">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>100</v>
       </c>
       <c r="D78" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E78" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F78" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G78" s="13" t="s">
         <v>49</v>
@@ -4464,7 +4963,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="79" ht="31.5" customHeight="1">
+    <row r="79" spans="1:8" ht="31.5" customHeight="1">
       <c r="A79" s="4"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -4474,24 +4973,24 @@
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
     </row>
-    <row r="80" ht="31.5" customHeight="1">
+    <row r="80" spans="1:8" ht="31.5" customHeight="1">
       <c r="A80" s="13">
-        <v>69.0</v>
+        <v>69</v>
       </c>
       <c r="B80" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>102</v>
       </c>
       <c r="D80" s="22">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="E80" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="F80" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="G80" s="13" t="s">
         <v>49</v>
@@ -4500,24 +4999,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="81" ht="31.5" customHeight="1">
+    <row r="81" spans="1:8" ht="31.5" customHeight="1">
       <c r="A81" s="13">
-        <v>70.0</v>
+        <v>70</v>
       </c>
       <c r="B81" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D81" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E81" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F81" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>49</v>
@@ -4526,24 +5025,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="82" ht="31.5" customHeight="1">
+    <row r="82" spans="1:8" ht="31.5" customHeight="1">
       <c r="A82" s="13">
-        <v>71.0</v>
+        <v>71</v>
       </c>
       <c r="B82" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>104</v>
       </c>
       <c r="D82" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E82" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F82" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G82" s="13" t="s">
         <v>49</v>
@@ -4552,24 +5051,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" ht="31.5" customHeight="1">
+    <row r="83" spans="1:8" ht="31.5" customHeight="1">
       <c r="A83" s="13">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="B83" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D83" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E83" s="22">
-        <v>42072.0</v>
+        <v>42072</v>
       </c>
       <c r="F83" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>49</v>
@@ -4578,24 +5077,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" ht="15.0" customHeight="1">
+    <row r="84" spans="1:8" ht="15" customHeight="1">
       <c r="A84" s="13">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="B84" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D84" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E84" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F84" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G84" s="13" t="s">
         <v>49</v>
@@ -4604,24 +5103,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" ht="15.0" customHeight="1">
+    <row r="85" spans="1:8" ht="15" customHeight="1">
       <c r="A85" s="13">
-        <v>74.0</v>
+        <v>74</v>
       </c>
       <c r="B85" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D85" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E85" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F85" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G85" s="13" t="s">
         <v>49</v>
@@ -4630,24 +5129,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="86" ht="15.0" customHeight="1">
+    <row r="86" spans="1:8" ht="15" customHeight="1">
       <c r="A86" s="13">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="B86" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>108</v>
       </c>
       <c r="D86" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E86" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F86" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G86" s="13" t="s">
         <v>49</v>
@@ -4656,7 +5155,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" ht="15.0" customHeight="1">
+    <row r="87" spans="1:8" ht="15" customHeight="1">
       <c r="A87" s="4"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -4666,24 +5165,24 @@
       <c r="G87" s="33"/>
       <c r="H87" s="4"/>
     </row>
-    <row r="88" ht="15.0" customHeight="1">
+    <row r="88" spans="1:8" ht="15" customHeight="1">
       <c r="A88" s="13">
-        <v>76.0</v>
+        <v>76</v>
       </c>
       <c r="B88" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>121</v>
       </c>
       <c r="D88" s="22">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="E88" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="F88" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="G88" s="13" t="s">
         <v>123</v>
@@ -4692,24 +5191,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="89" ht="15.0" customHeight="1">
+    <row r="89" spans="1:8" ht="15" customHeight="1">
       <c r="A89" s="13">
-        <v>77.0</v>
+        <v>77</v>
       </c>
       <c r="B89" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D89" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E89" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F89" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G89" s="13" t="s">
         <v>123</v>
@@ -4718,24 +5217,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" ht="15.0" customHeight="1">
+    <row r="90" spans="1:8" ht="15" customHeight="1">
       <c r="A90" s="13">
-        <v>78.0</v>
+        <v>78</v>
       </c>
       <c r="B90" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>124</v>
       </c>
       <c r="D90" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E90" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F90" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G90" s="13" t="s">
         <v>123</v>
@@ -4744,24 +5243,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" ht="15.0" customHeight="1">
+    <row r="91" spans="1:8" ht="15" customHeight="1">
       <c r="A91" s="13">
-        <v>79.0</v>
+        <v>79</v>
       </c>
       <c r="B91" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D91" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E91" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F91" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>123</v>
@@ -4770,24 +5269,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" ht="15.0" customHeight="1">
+    <row r="92" spans="1:8" ht="15" customHeight="1">
       <c r="A92" s="13">
-        <v>80.0</v>
+        <v>80</v>
       </c>
       <c r="B92" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D92" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E92" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F92" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G92" s="13" t="s">
         <v>123</v>
@@ -4796,24 +5295,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" ht="15.0" customHeight="1">
+    <row r="93" spans="1:8" ht="15" customHeight="1">
       <c r="A93" s="13">
-        <v>81.0</v>
+        <v>81</v>
       </c>
       <c r="B93" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D93" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E93" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F93" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G93" s="13" t="s">
         <v>123</v>
@@ -4822,24 +5321,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="94" ht="15.0" customHeight="1">
+    <row r="94" spans="1:8" ht="15" customHeight="1">
       <c r="A94" s="13">
-        <v>82.0</v>
+        <v>82</v>
       </c>
       <c r="B94" s="13">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>125</v>
       </c>
       <c r="D94" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E94" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F94" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G94" s="13" t="s">
         <v>123</v>
@@ -4848,7 +5347,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="95" ht="15.0" customHeight="1">
+    <row r="95" spans="1:8" ht="15" customHeight="1">
       <c r="A95" s="4"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -4858,24 +5357,24 @@
       <c r="G95" s="33"/>
       <c r="H95" s="4"/>
     </row>
-    <row r="96" ht="15.0" customHeight="1">
+    <row r="96" spans="1:8" ht="15" customHeight="1">
       <c r="A96" s="13">
-        <v>83.0</v>
+        <v>83</v>
       </c>
       <c r="B96" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D96" s="22">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="E96" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="F96" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="G96" s="13" t="s">
         <v>123</v>
@@ -4884,24 +5383,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="97" ht="15.0" customHeight="1">
+    <row r="97" spans="1:8" ht="15" customHeight="1">
       <c r="A97" s="13">
-        <v>84.0</v>
+        <v>84</v>
       </c>
       <c r="B97" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D97" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E97" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F97" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G97" s="13" t="s">
         <v>123</v>
@@ -4910,24 +5409,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="98" ht="30.0" customHeight="1">
+    <row r="98" spans="1:8" ht="30" customHeight="1">
       <c r="A98" s="13">
-        <v>85.0</v>
+        <v>85</v>
       </c>
       <c r="B98" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>127</v>
       </c>
       <c r="D98" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E98" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F98" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G98" s="13" t="s">
         <v>123</v>
@@ -4936,24 +5435,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="99" ht="15.0" customHeight="1">
+    <row r="99" spans="1:8" ht="15" customHeight="1">
       <c r="A99" s="13">
-        <v>86.0</v>
+        <v>86</v>
       </c>
       <c r="B99" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D99" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E99" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F99" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G99" s="13" t="s">
         <v>123</v>
@@ -4962,24 +5461,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" ht="15.0" customHeight="1">
+    <row r="100" spans="1:8" ht="15" customHeight="1">
       <c r="A100" s="13">
-        <v>87.0</v>
+        <v>87</v>
       </c>
       <c r="B100" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D100" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E100" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F100" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G100" s="13" t="s">
         <v>123</v>
@@ -4988,24 +5487,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" ht="15.0" customHeight="1">
+    <row r="101" spans="1:8" ht="15" customHeight="1">
       <c r="A101" s="13">
-        <v>88.0</v>
+        <v>88</v>
       </c>
       <c r="B101" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C101" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D101" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E101" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F101" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G101" s="13" t="s">
         <v>123</v>
@@ -5014,24 +5513,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="102" ht="15.0" customHeight="1">
+    <row r="102" spans="1:8" ht="15" customHeight="1">
       <c r="A102" s="13">
-        <v>89.0</v>
+        <v>89</v>
       </c>
       <c r="B102" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>128</v>
       </c>
       <c r="D102" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E102" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F102" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G102" s="13" t="s">
         <v>123</v>
@@ -5040,7 +5539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" ht="15.0" customHeight="1">
+    <row r="103" spans="1:8" ht="15" customHeight="1">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -5050,24 +5549,24 @@
       <c r="G103" s="33"/>
       <c r="H103" s="4"/>
     </row>
-    <row r="104" ht="15.0" customHeight="1">
+    <row r="104" spans="1:8" ht="15" customHeight="1">
       <c r="A104" s="13">
-        <v>90.0</v>
+        <v>90</v>
       </c>
       <c r="B104" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>126</v>
       </c>
       <c r="D104" s="22">
-        <v>42066.0</v>
+        <v>42066</v>
       </c>
       <c r="E104" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="F104" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="G104" s="13" t="s">
         <v>123</v>
@@ -5076,24 +5575,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" ht="15.0" customHeight="1">
+    <row r="105" spans="1:8" ht="15" customHeight="1">
       <c r="A105" s="13">
-        <v>91.0</v>
+        <v>91</v>
       </c>
       <c r="B105" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D105" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E105" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F105" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="G105" s="13" t="s">
         <v>123</v>
@@ -5102,24 +5601,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" ht="15.0" customHeight="1">
+    <row r="106" spans="1:8" ht="15" customHeight="1">
       <c r="A106" s="13">
-        <v>92.0</v>
+        <v>92</v>
       </c>
       <c r="B106" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>130</v>
       </c>
       <c r="D106" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E106" s="22">
-        <v>42069.0</v>
+        <v>42069</v>
       </c>
       <c r="F106" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G106" s="13" t="s">
         <v>123</v>
@@ -5128,24 +5627,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" ht="15.0" customHeight="1">
+    <row r="107" spans="1:8" ht="15" customHeight="1">
       <c r="A107" s="13">
-        <v>93.0</v>
+        <v>93</v>
       </c>
       <c r="B107" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>90</v>
       </c>
       <c r="D107" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E107" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F107" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G107" s="13" t="s">
         <v>123</v>
@@ -5154,24 +5653,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" ht="15.0" customHeight="1">
+    <row r="108" spans="1:8" ht="15" customHeight="1">
       <c r="A108" s="13">
-        <v>94.0</v>
+        <v>94</v>
       </c>
       <c r="B108" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>71</v>
       </c>
       <c r="D108" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E108" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F108" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G108" s="13" t="s">
         <v>123</v>
@@ -5180,24 +5679,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" ht="15.0" customHeight="1">
+    <row r="109" spans="1:8" ht="15" customHeight="1">
       <c r="A109" s="13">
-        <v>95.0</v>
+        <v>95</v>
       </c>
       <c r="B109" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C109" s="13" t="s">
         <v>33</v>
       </c>
       <c r="D109" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E109" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F109" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G109" s="13" t="s">
         <v>123</v>
@@ -5206,24 +5705,24 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" ht="15.0" customHeight="1">
+    <row r="110" spans="1:8" ht="15" customHeight="1">
       <c r="A110" s="13">
-        <v>96.0</v>
+        <v>96</v>
       </c>
       <c r="B110" s="13">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="C110" s="13" t="s">
         <v>132</v>
       </c>
       <c r="D110" s="22">
-        <v>42067.0</v>
+        <v>42067</v>
       </c>
       <c r="E110" s="22">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="F110" s="38">
-        <v>42073.0</v>
+        <v>42073</v>
       </c>
       <c r="G110" s="13" t="s">
         <v>123</v>
@@ -5232,7 +5731,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" ht="15.0" customHeight="1">
+    <row r="111" spans="1:8" ht="15" customHeight="1">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -5242,19 +5741,19 @@
       <c r="G111" s="33"/>
       <c r="H111" s="4"/>
     </row>
-    <row r="112" ht="15.0" customHeight="1">
+    <row r="112" spans="1:8" ht="15" customHeight="1">
       <c r="A112" s="43"/>
       <c r="B112" s="45">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C112" s="43" t="s">
         <v>134</v>
       </c>
       <c r="D112" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E112" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F112" s="49"/>
       <c r="G112" s="49" t="s">
@@ -5264,19 +5763,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="113" ht="15.0" customHeight="1">
+    <row r="113" spans="1:8" ht="15" customHeight="1">
       <c r="A113" s="43"/>
       <c r="B113" s="45">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C113" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D113" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E113" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F113" s="49"/>
       <c r="G113" s="49" t="s">
@@ -5286,19 +5785,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="114" ht="15.0" customHeight="1">
+    <row r="114" spans="1:8" ht="15" customHeight="1">
       <c r="A114" s="43"/>
       <c r="B114" s="45">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C114" s="43" t="s">
         <v>142</v>
       </c>
       <c r="D114" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E114" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F114" s="49"/>
       <c r="G114" s="49" t="s">
@@ -5308,19 +5807,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="115" ht="15.0" customHeight="1">
+    <row r="115" spans="1:8" ht="15" customHeight="1">
       <c r="A115" s="43"/>
       <c r="B115" s="45">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C115" s="43" t="s">
         <v>90</v>
       </c>
       <c r="D115" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E115" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F115" s="49"/>
       <c r="G115" s="49" t="s">
@@ -5330,19 +5829,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="116" ht="15.0" customHeight="1">
+    <row r="116" spans="1:8" ht="15" customHeight="1">
       <c r="A116" s="43"/>
       <c r="B116" s="45">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C116" s="43" t="s">
         <v>143</v>
       </c>
       <c r="D116" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E116" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F116" s="49"/>
       <c r="G116" s="49" t="s">
@@ -5352,19 +5851,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="117" ht="15.0" customHeight="1">
+    <row r="117" spans="1:8" ht="15" customHeight="1">
       <c r="A117" s="43"/>
       <c r="B117" s="45">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C117" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D117" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E117" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F117" s="49"/>
       <c r="G117" s="49" t="s">
@@ -5374,10 +5873,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="118" ht="15.0" customHeight="1">
+    <row r="118" spans="1:8" ht="15" customHeight="1">
       <c r="A118" s="43"/>
       <c r="B118" s="45">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="C118" s="43" t="s">
         <v>146</v>
@@ -5392,7 +5891,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" ht="12">
       <c r="A119" s="52"/>
       <c r="B119" s="52"/>
       <c r="C119" s="52"/>
@@ -5402,19 +5901,19 @@
       <c r="G119" s="52"/>
       <c r="H119" s="52"/>
     </row>
-    <row r="120" ht="30.0" customHeight="1">
+    <row r="120" spans="1:8" ht="30" customHeight="1">
       <c r="A120" s="43"/>
       <c r="B120" s="45">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C120" s="43" t="s">
         <v>147</v>
       </c>
       <c r="D120" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E120" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F120" s="49"/>
       <c r="G120" s="49" t="s">
@@ -5424,19 +5923,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="121" ht="15.0" customHeight="1">
+    <row r="121" spans="1:8" ht="15" customHeight="1">
       <c r="A121" s="43"/>
       <c r="B121" s="45">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C121" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D121" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E121" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F121" s="49"/>
       <c r="G121" s="49" t="s">
@@ -5446,19 +5945,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" ht="15.0" customHeight="1">
+    <row r="122" spans="1:8" ht="15" customHeight="1">
       <c r="A122" s="43"/>
       <c r="B122" s="45">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C122" s="43" t="s">
         <v>148</v>
       </c>
       <c r="D122" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E122" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F122" s="49"/>
       <c r="G122" s="49" t="s">
@@ -5468,19 +5967,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="123" ht="15.0" customHeight="1">
+    <row r="123" spans="1:8" ht="15" customHeight="1">
       <c r="A123" s="43"/>
       <c r="B123" s="45">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C123" s="43" t="s">
         <v>149</v>
       </c>
       <c r="D123" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E123" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F123" s="49"/>
       <c r="G123" s="49" t="s">
@@ -5490,19 +5989,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="124" ht="15.0" customHeight="1">
+    <row r="124" spans="1:8" ht="15" customHeight="1">
       <c r="A124" s="43"/>
       <c r="B124" s="45">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C124" s="43" t="s">
         <v>150</v>
       </c>
       <c r="D124" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E124" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F124" s="49"/>
       <c r="G124" s="49" t="s">
@@ -5512,19 +6011,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="125" ht="15.0" customHeight="1">
+    <row r="125" spans="1:8" ht="15" customHeight="1">
       <c r="A125" s="43"/>
       <c r="B125" s="45">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C125" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D125" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E125" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F125" s="49"/>
       <c r="G125" s="49" t="s">
@@ -5534,10 +6033,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="126" ht="15.0" customHeight="1">
+    <row r="126" spans="1:8" ht="15" customHeight="1">
       <c r="A126" s="43"/>
       <c r="B126" s="45">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="C126" s="43" t="s">
         <v>146</v>
@@ -5552,7 +6051,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" ht="12">
       <c r="A127" s="52"/>
       <c r="B127" s="52"/>
       <c r="C127" s="52"/>
@@ -5562,19 +6061,19 @@
       <c r="G127" s="52"/>
       <c r="H127" s="52"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8">
       <c r="A128" s="43"/>
       <c r="B128" s="45">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C128" s="43" t="s">
         <v>154</v>
       </c>
       <c r="D128" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E128" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F128" s="49"/>
       <c r="G128" s="49" t="s">
@@ -5584,19 +6083,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="129" ht="15.0" customHeight="1">
+    <row r="129" spans="1:8" ht="15" customHeight="1">
       <c r="A129" s="43"/>
       <c r="B129" s="45">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C129" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D129" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E129" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F129" s="49"/>
       <c r="G129" s="49" t="s">
@@ -5606,19 +6105,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="130" ht="15.0" customHeight="1">
+    <row r="130" spans="1:8" ht="15" customHeight="1">
       <c r="A130" s="43"/>
       <c r="B130" s="45">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C130" s="43" t="s">
         <v>155</v>
       </c>
       <c r="D130" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E130" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F130" s="49"/>
       <c r="G130" s="49" t="s">
@@ -5628,19 +6127,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="131" ht="15.0" customHeight="1">
+    <row r="131" spans="1:8" ht="15" customHeight="1">
       <c r="A131" s="43"/>
       <c r="B131" s="45">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C131" s="43" t="s">
         <v>149</v>
       </c>
       <c r="D131" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E131" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F131" s="49"/>
       <c r="G131" s="49" t="s">
@@ -5650,19 +6149,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="132" ht="15.0" customHeight="1">
+    <row r="132" spans="1:8" ht="15" customHeight="1">
       <c r="A132" s="43"/>
       <c r="B132" s="45">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C132" s="43" t="s">
         <v>156</v>
       </c>
       <c r="D132" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E132" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F132" s="49"/>
       <c r="G132" s="49" t="s">
@@ -5672,19 +6171,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="133" ht="15.0" customHeight="1">
+    <row r="133" spans="1:8" ht="15" customHeight="1">
       <c r="A133" s="43"/>
       <c r="B133" s="45">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C133" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D133" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E133" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F133" s="49"/>
       <c r="G133" s="49" t="s">
@@ -5694,10 +6193,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="134" ht="15.0" customHeight="1">
+    <row r="134" spans="1:8" ht="15" customHeight="1">
       <c r="A134" s="43"/>
       <c r="B134" s="45">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="C134" s="43" t="s">
         <v>146</v>
@@ -5712,7 +6211,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" ht="12">
       <c r="A135" s="52"/>
       <c r="B135" s="52"/>
       <c r="C135" s="52"/>
@@ -5722,19 +6221,19 @@
       <c r="G135" s="52"/>
       <c r="H135" s="52"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8">
       <c r="A136" s="43"/>
       <c r="B136" s="45">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C136" s="43" t="s">
         <v>159</v>
       </c>
       <c r="D136" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E136" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F136" s="49"/>
       <c r="G136" s="49" t="s">
@@ -5744,19 +6243,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="137" ht="15.0" customHeight="1">
+    <row r="137" spans="1:8" ht="15" customHeight="1">
       <c r="A137" s="43"/>
       <c r="B137" s="45">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C137" s="43" t="s">
         <v>25</v>
       </c>
       <c r="D137" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E137" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F137" s="49"/>
       <c r="G137" s="49" t="s">
@@ -5766,19 +6265,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="138" ht="15.0" customHeight="1">
+    <row r="138" spans="1:8" ht="15" customHeight="1">
       <c r="A138" s="43"/>
       <c r="B138" s="45">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C138" s="43" t="s">
         <v>162</v>
       </c>
       <c r="D138" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E138" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F138" s="49"/>
       <c r="G138" s="49" t="s">
@@ -5788,19 +6287,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" ht="15.0" customHeight="1">
+    <row r="139" spans="1:8" ht="15" customHeight="1">
       <c r="A139" s="43"/>
       <c r="B139" s="45">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C139" s="43" t="s">
         <v>149</v>
       </c>
       <c r="D139" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E139" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F139" s="49"/>
       <c r="G139" s="49" t="s">
@@ -5810,19 +6309,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="140" ht="15.0" customHeight="1">
+    <row r="140" spans="1:8" ht="15" customHeight="1">
       <c r="A140" s="43"/>
       <c r="B140" s="45">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C140" s="43" t="s">
         <v>163</v>
       </c>
       <c r="D140" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E140" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F140" s="49"/>
       <c r="G140" s="49" t="s">
@@ -5832,19 +6331,19 @@
         <v>141</v>
       </c>
     </row>
-    <row r="141" ht="15.0" customHeight="1">
+    <row r="141" spans="1:8" ht="15" customHeight="1">
       <c r="A141" s="43"/>
       <c r="B141" s="45">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C141" s="43" t="s">
         <v>33</v>
       </c>
       <c r="D141" s="47">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E141" s="47">
-        <v>42090.0</v>
+        <v>42090</v>
       </c>
       <c r="F141" s="49"/>
       <c r="G141" s="49" t="s">
@@ -5854,10 +6353,10 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" ht="15.0" customHeight="1">
+    <row r="142" spans="1:8" ht="15" customHeight="1">
       <c r="A142" s="43"/>
       <c r="B142" s="45">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="C142" s="43" t="s">
         <v>146</v>
@@ -5872,7 +6371,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" ht="12">
       <c r="A143" s="52"/>
       <c r="B143" s="52"/>
       <c r="C143" s="52"/>
@@ -5882,10 +6381,10 @@
       <c r="G143" s="52"/>
       <c r="H143" s="52"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8">
       <c r="A144" s="43"/>
       <c r="B144" s="45">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C144" s="43" t="s">
         <v>165</v>
@@ -5896,10 +6395,10 @@
       <c r="G144" s="49"/>
       <c r="H144" s="43"/>
     </row>
-    <row r="145" ht="15.0" customHeight="1">
+    <row r="145" spans="1:8" ht="15" customHeight="1">
       <c r="A145" s="43"/>
       <c r="B145" s="45">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C145" s="43" t="s">
         <v>25</v>
@@ -5910,10 +6409,10 @@
       <c r="G145" s="49"/>
       <c r="H145" s="43"/>
     </row>
-    <row r="146" ht="15.0" customHeight="1">
+    <row r="146" spans="1:8" ht="15" customHeight="1">
       <c r="A146" s="43"/>
       <c r="B146" s="45">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C146" s="43" t="s">
         <v>167</v>
@@ -5924,10 +6423,10 @@
       <c r="G146" s="49"/>
       <c r="H146" s="43"/>
     </row>
-    <row r="147" ht="15.0" customHeight="1">
+    <row r="147" spans="1:8" ht="15" customHeight="1">
       <c r="A147" s="43"/>
       <c r="B147" s="45">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C147" s="43" t="s">
         <v>149</v>
@@ -5938,10 +6437,10 @@
       <c r="G147" s="49"/>
       <c r="H147" s="43"/>
     </row>
-    <row r="148" ht="15.0" customHeight="1">
+    <row r="148" spans="1:8" ht="15" customHeight="1">
       <c r="A148" s="43"/>
       <c r="B148" s="45">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C148" s="43" t="s">
         <v>168</v>
@@ -5952,10 +6451,10 @@
       <c r="G148" s="49"/>
       <c r="H148" s="43"/>
     </row>
-    <row r="149" ht="15.0" customHeight="1">
+    <row r="149" spans="1:8" ht="15" customHeight="1">
       <c r="A149" s="43"/>
       <c r="B149" s="45">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C149" s="43" t="s">
         <v>33</v>
@@ -5966,10 +6465,10 @@
       <c r="G149" s="49"/>
       <c r="H149" s="43"/>
     </row>
-    <row r="150" ht="15.0" customHeight="1">
+    <row r="150" spans="1:8" ht="15" customHeight="1">
       <c r="A150" s="43"/>
       <c r="B150" s="45">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="C150" s="43" t="s">
         <v>146</v>
@@ -5980,7 +6479,7 @@
       <c r="G150" s="49"/>
       <c r="H150" s="43"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8" ht="12">
       <c r="A151" s="52"/>
       <c r="B151" s="52"/>
       <c r="C151" s="52"/>
@@ -5990,199 +6489,199 @@
       <c r="G151" s="52"/>
       <c r="H151" s="52"/>
     </row>
-    <row r="152" ht="15.0" customHeight="1">
+    <row r="152" spans="1:8" ht="15" customHeight="1">
       <c r="A152" s="56"/>
       <c r="B152" s="39">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C152" s="39" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D152" s="62">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E152" s="63">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F152" s="64">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G152" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H152" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="153" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="15" customHeight="1">
       <c r="A153" s="56"/>
       <c r="B153" s="39">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C153" s="39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D153" s="62">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E153" s="63">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F153" s="64">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G153" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H153" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="154" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="15" customHeight="1">
       <c r="A154" s="56"/>
       <c r="B154" s="39">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C154" s="39" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D154" s="62">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E154" s="63">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F154" s="64">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G154" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H154" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="155" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="15" customHeight="1">
       <c r="A155" s="56"/>
       <c r="B155" s="39">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C155" s="39" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D155" s="62">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E155" s="63">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F155" s="64">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G155" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H155" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="156" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="15" customHeight="1">
       <c r="A156" s="56"/>
       <c r="B156" s="39">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C156" s="39" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D156" s="62">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E156" s="63">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F156" s="64">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G156" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H156" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="157" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="15" customHeight="1">
       <c r="A157" s="56"/>
       <c r="B157" s="39">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C157" s="39" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D157" s="62">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E157" s="63">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F157" s="64">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G157" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H157" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="15" customHeight="1">
       <c r="A158" s="56"/>
       <c r="B158" s="39">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C158" s="39" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D158" s="62">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E158" s="63">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F158" s="64">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G158" s="65" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H158" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="159" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="15" customHeight="1">
       <c r="A159" s="56"/>
       <c r="B159" s="67">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="C159" s="67" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D159" s="62">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E159" s="63">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F159" s="64">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G159" s="69" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H159" s="39" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="12">
       <c r="A160" s="52"/>
       <c r="B160" s="52"/>
       <c r="C160" s="52"/>
@@ -6192,175 +6691,175 @@
       <c r="G160" s="52"/>
       <c r="H160" s="52"/>
     </row>
-    <row r="161" ht="15.0" customHeight="1">
+    <row r="161" spans="1:8" ht="15" customHeight="1">
       <c r="A161" s="52"/>
       <c r="B161" s="71">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C161" s="71" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D161" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E161" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F161" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G161" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H161" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="162" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="15" customHeight="1">
       <c r="A162" s="52"/>
       <c r="B162" s="71">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C162" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D162" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E162" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F162" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G162" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H162" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="163" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="15" customHeight="1">
       <c r="A163" s="52"/>
       <c r="B163" s="71">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C163" s="71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D163" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E163" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F163" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G163" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H163" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="164" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="15" customHeight="1">
       <c r="A164" s="52"/>
       <c r="B164" s="71">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C164" s="71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D164" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E164" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F164" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G164" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H164" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="165" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="15" customHeight="1">
       <c r="A165" s="52"/>
       <c r="B165" s="71">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C165" s="71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D165" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E165" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F165" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G165" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H165" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="15" customHeight="1">
       <c r="A166" s="52"/>
       <c r="B166" s="71">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C166" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D166" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E166" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F166" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G166" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H166" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="167" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="15" customHeight="1">
       <c r="A167" s="52"/>
       <c r="B167" s="71">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="C167" s="71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D167" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E167" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F167" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G167" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H167" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="12">
       <c r="A168" s="52"/>
       <c r="B168" s="52"/>
       <c r="C168" s="52"/>
@@ -6370,175 +6869,175 @@
       <c r="G168" s="52"/>
       <c r="H168" s="52"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:8">
       <c r="A169" s="52"/>
       <c r="B169" s="71">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C169" s="71" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D169" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E169" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F169" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G169" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H169" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="52"/>
       <c r="B170" s="71">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C170" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D170" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E170" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F170" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G170" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H170" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="52"/>
       <c r="B171" s="71">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C171" s="71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D171" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E171" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F171" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G171" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H171" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="52"/>
       <c r="B172" s="71">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C172" s="71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D172" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E172" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F172" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G172" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H172" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="52"/>
       <c r="B173" s="71">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C173" s="71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D173" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E173" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F173" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G173" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H173" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="52"/>
       <c r="B174" s="71">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C174" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D174" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E174" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F174" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G174" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H174" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="52"/>
       <c r="B175" s="80">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="C175" s="71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D175" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E175" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F175" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G175" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H175" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="52"/>
       <c r="B176" s="81"/>
       <c r="C176" s="82"/>
@@ -6548,175 +7047,175 @@
       <c r="G176" s="86"/>
       <c r="H176" s="82"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:8" ht="30">
       <c r="A177" s="52"/>
       <c r="B177" s="71">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C177" s="71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D177" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E177" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F177" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G177" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H177" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="52"/>
       <c r="B178" s="71">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C178" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D178" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E178" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F178" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G178" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H178" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="52"/>
       <c r="B179" s="71">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C179" s="71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D179" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E179" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F179" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G179" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H179" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="52"/>
       <c r="B180" s="71">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C180" s="71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D180" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E180" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F180" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G180" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H180" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="52"/>
       <c r="B181" s="71">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C181" s="71" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D181" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E181" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F181" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G181" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H181" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="52"/>
       <c r="B182" s="71">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C182" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D182" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E182" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F182" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G182" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H182" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="52"/>
       <c r="B183" s="80">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="C183" s="71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D183" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E183" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F183" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G183" s="78" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="H183" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="52"/>
       <c r="B184" s="81"/>
       <c r="C184" s="82"/>
@@ -6726,7 +7225,7 @@
       <c r="G184" s="86"/>
       <c r="H184" s="82"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:8">
       <c r="A185" s="52"/>
       <c r="B185" s="81"/>
       <c r="C185" s="82"/>
@@ -6736,175 +7235,175 @@
       <c r="G185" s="86"/>
       <c r="H185" s="82"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:8" ht="30">
       <c r="A186" s="52"/>
       <c r="B186" s="71">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C186" s="71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D186" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E186" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F186" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G186" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H186" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="52"/>
       <c r="B187" s="71">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C187" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D187" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E187" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F187" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G187" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H187" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="52"/>
       <c r="B188" s="71">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C188" s="71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D188" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E188" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F188" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G188" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H188" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="52"/>
       <c r="B189" s="71">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C189" s="71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D189" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E189" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F189" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G189" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H189" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="52"/>
       <c r="B190" s="71">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C190" s="71" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D190" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E190" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F190" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G190" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H190" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="52"/>
       <c r="B191" s="71">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C191" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D191" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E191" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F191" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G191" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H191" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="52"/>
       <c r="B192" s="71">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="C192" s="71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D192" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E192" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F192" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G192" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H192" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="52"/>
       <c r="B193" s="81"/>
       <c r="C193" s="82"/>
@@ -6914,175 +7413,175 @@
       <c r="G193" s="86"/>
       <c r="H193" s="82"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:8" ht="30">
       <c r="A194" s="52"/>
       <c r="B194" s="71">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C194" s="71" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D194" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E194" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F194" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G194" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H194" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="52"/>
       <c r="B195" s="71">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C195" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D195" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E195" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F195" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G195" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H195" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="52"/>
       <c r="B196" s="71">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C196" s="71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D196" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E196" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F196" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G196" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H196" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="52"/>
       <c r="B197" s="71">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C197" s="71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D197" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E197" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F197" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G197" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H197" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="52"/>
       <c r="B198" s="71">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C198" s="71" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D198" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E198" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F198" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G198" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H198" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="52"/>
       <c r="B199" s="71">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C199" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D199" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E199" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F199" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G199" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H199" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="200" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="15" customHeight="1">
       <c r="A200" s="52"/>
       <c r="B200" s="71">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="C200" s="71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D200" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E200" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F200" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G200" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H200" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="201" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="15" customHeight="1">
       <c r="A201" s="52"/>
       <c r="D201" s="52"/>
       <c r="E201" s="52"/>
@@ -7090,175 +7589,175 @@
       <c r="G201" s="52"/>
       <c r="H201" s="52"/>
     </row>
-    <row r="202" ht="15.0" customHeight="1">
+    <row r="202" spans="1:8" ht="15" customHeight="1">
       <c r="A202" s="52"/>
       <c r="B202" s="71">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C202" s="71" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D202" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E202" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F202" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G202" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H202" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="203" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="15" customHeight="1">
       <c r="A203" s="52"/>
       <c r="B203" s="71">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C203" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D203" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E203" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F203" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G203" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H203" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="204" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="15" customHeight="1">
       <c r="A204" s="52"/>
       <c r="B204" s="71">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C204" s="71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D204" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E204" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F204" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G204" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H204" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="205" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="15" customHeight="1">
       <c r="A205" s="52"/>
       <c r="B205" s="71">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C205" s="71" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D205" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E205" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F205" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G205" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H205" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="206" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="15" customHeight="1">
       <c r="A206" s="52"/>
       <c r="B206" s="71">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C206" s="71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D206" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E206" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F206" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G206" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H206" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="207" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="15" customHeight="1">
       <c r="A207" s="52"/>
       <c r="B207" s="71">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C207" s="71" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D207" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E207" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F207" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G207" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H207" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="208" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="15" customHeight="1">
       <c r="A208" s="52"/>
       <c r="B208" s="71">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="C208" s="71" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D208" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E208" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F208" s="77">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="G208" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H208" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="209" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="15" customHeight="1">
       <c r="A209" s="52"/>
       <c r="D209" s="52"/>
       <c r="E209" s="52"/>
@@ -7266,165 +7765,165 @@
       <c r="G209" s="52"/>
       <c r="H209" s="52"/>
     </row>
-    <row r="210" ht="15.0" customHeight="1">
+    <row r="210" spans="1:8" ht="15" customHeight="1">
       <c r="A210" s="88"/>
       <c r="B210" s="71">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C210" s="71" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D210" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E210" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F210" s="77">
-        <v>42100.0</v>
+        <v>42100</v>
       </c>
       <c r="G210" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H210" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="211" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="15" customHeight="1">
       <c r="A211" s="88"/>
       <c r="B211" s="71">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C211" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D211" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E211" s="76">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F211" s="77">
-        <v>42101.0</v>
+        <v>42101</v>
       </c>
       <c r="G211" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H211" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="212" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="15" customHeight="1">
       <c r="A212" s="52"/>
       <c r="B212" s="89">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C212" s="89" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D212" s="90">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E212" s="91">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F212" s="92"/>
       <c r="G212" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H212" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="15" customHeight="1">
       <c r="A213" s="52"/>
       <c r="B213" s="89">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C213" s="89" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D213" s="91">
-        <v>42088.0</v>
+        <v>42088</v>
       </c>
       <c r="E213" s="91">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="F213" s="92"/>
       <c r="G213" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H213" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="214" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="15" customHeight="1">
       <c r="A214" s="52"/>
       <c r="B214" s="89">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C214" s="89" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D214" s="91">
-        <v>42088.0</v>
+        <v>42088</v>
       </c>
       <c r="E214" s="91">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="F214" s="92"/>
       <c r="G214" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H214" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="215" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="15" customHeight="1">
       <c r="A215" s="52"/>
       <c r="B215" s="89">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C215" s="89" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D215" s="91">
-        <v>42088.0</v>
+        <v>42088</v>
       </c>
       <c r="E215" s="91">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="F215" s="92"/>
       <c r="G215" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H215" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="216" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="15" customHeight="1">
       <c r="A216" s="52"/>
       <c r="B216" s="89">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="C216" s="89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D216" s="91">
-        <v>42089.0</v>
+        <v>42089</v>
       </c>
       <c r="E216" s="91">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="F216" s="92"/>
       <c r="G216" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H216" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="217" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="15" customHeight="1">
       <c r="A217" s="52"/>
       <c r="B217" s="94"/>
       <c r="C217" s="95"/>
@@ -7434,165 +7933,165 @@
       <c r="G217" s="95"/>
       <c r="H217" s="95"/>
     </row>
-    <row r="218" ht="15.0" customHeight="1">
+    <row r="218" spans="1:8" ht="15" customHeight="1">
       <c r="A218" s="88"/>
       <c r="B218" s="71">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C218" s="71" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D218" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E218" s="76">
-        <v>42092.0</v>
+        <v>42092</v>
       </c>
       <c r="F218" s="77">
-        <v>42100.0</v>
+        <v>42100</v>
       </c>
       <c r="G218" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H218" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="219" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="15" customHeight="1">
       <c r="A219" s="88"/>
       <c r="B219" s="71">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C219" s="71" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D219" s="72">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E219" s="76">
-        <v>42092.0</v>
+        <v>42092</v>
       </c>
       <c r="F219" s="77">
-        <v>42101.0</v>
+        <v>42101</v>
       </c>
       <c r="G219" s="87" t="s">
         <v>52</v>
       </c>
       <c r="H219" s="71" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="220" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="15" customHeight="1">
       <c r="A220" s="52"/>
       <c r="B220" s="89">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C220" s="89" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D220" s="90">
-        <v>42087.0</v>
+        <v>42087</v>
       </c>
       <c r="E220" s="91">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F220" s="92"/>
       <c r="G220" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H220" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="221" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="15" customHeight="1">
       <c r="A221" s="52"/>
       <c r="B221" s="89">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C221" s="89" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D221" s="91">
-        <v>42088.0</v>
+        <v>42088</v>
       </c>
       <c r="E221" s="91">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F221" s="92"/>
       <c r="G221" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H221" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="222" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="15" customHeight="1">
       <c r="A222" s="52"/>
       <c r="B222" s="89">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C222" s="89" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D222" s="91">
-        <v>42088.0</v>
+        <v>42088</v>
       </c>
       <c r="E222" s="91">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F222" s="92"/>
       <c r="G222" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H222" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="223" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="15" customHeight="1">
       <c r="A223" s="52"/>
       <c r="B223" s="89">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C223" s="89" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D223" s="91">
-        <v>42088.0</v>
+        <v>42088</v>
       </c>
       <c r="E223" s="91">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F223" s="92"/>
       <c r="G223" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H223" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="224" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="15" customHeight="1">
       <c r="A224" s="52"/>
       <c r="B224" s="89">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="C224" s="89" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D224" s="91">
-        <v>42089.0</v>
+        <v>42089</v>
       </c>
       <c r="E224" s="91">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="F224" s="92"/>
       <c r="G224" s="93" t="s">
         <v>52</v>
       </c>
       <c r="H224" s="89" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="225" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="15" customHeight="1">
       <c r="A225" s="52"/>
       <c r="C225" s="52"/>
       <c r="D225" s="52"/>
@@ -7601,121 +8100,121 @@
       <c r="G225" s="52"/>
       <c r="H225" s="52"/>
     </row>
-    <row r="226" ht="15.0" customHeight="1">
+    <row r="226" spans="1:8" ht="15" customHeight="1">
       <c r="A226" s="96"/>
       <c r="B226" s="97">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C226" s="98" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D226" s="99">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E226" s="99">
-        <v>42104.0</v>
+        <v>42104</v>
       </c>
       <c r="F226" s="100"/>
       <c r="G226" s="98" t="s">
         <v>113</v>
       </c>
       <c r="H226" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="227" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="15" customHeight="1">
       <c r="A227" s="101"/>
       <c r="B227" s="102">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C227" s="103" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D227" s="104">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E227" s="105">
-        <v>42104.0</v>
+        <v>42104</v>
       </c>
       <c r="F227" s="105">
-        <v>42101.0</v>
+        <v>42101</v>
       </c>
       <c r="G227" s="103" t="s">
         <v>113</v>
       </c>
       <c r="H227" s="103" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="228" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="15" customHeight="1">
       <c r="A228" s="101"/>
       <c r="B228" s="102">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C228" s="103" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D228" s="104">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E228" s="105">
-        <v>42105.0</v>
+        <v>42105</v>
       </c>
       <c r="F228" s="105">
-        <v>42100.0</v>
+        <v>42100</v>
       </c>
       <c r="G228" s="103" t="s">
         <v>113</v>
       </c>
       <c r="H228" s="103" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="229" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="15" customHeight="1">
       <c r="A229" s="96"/>
       <c r="B229" s="97">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C229" s="98" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D229" s="106">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="E229" s="99">
-        <v>42105.0</v>
+        <v>42105</v>
       </c>
       <c r="F229" s="100"/>
       <c r="G229" s="98" t="s">
         <v>113</v>
       </c>
       <c r="H229" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="230" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="15" customHeight="1">
       <c r="A230" s="96"/>
       <c r="B230" s="97">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="C230" s="98" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D230" s="106">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="E230" s="99">
-        <v>42106.0</v>
+        <v>42106</v>
       </c>
       <c r="F230" s="100"/>
       <c r="G230" s="98" t="s">
         <v>113</v>
       </c>
       <c r="H230" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="231" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="15" customHeight="1">
       <c r="A231" s="96"/>
       <c r="B231" s="107"/>
       <c r="C231" s="108"/>
@@ -7725,121 +8224,121 @@
       <c r="G231" s="109"/>
       <c r="H231" s="109"/>
     </row>
-    <row r="232" ht="15.0" customHeight="1">
+    <row r="232" spans="1:8" ht="15" customHeight="1">
       <c r="A232" s="101"/>
       <c r="B232" s="102">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C232" s="103" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D232" s="104">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E232" s="105">
-        <v>42105.0</v>
+        <v>42105</v>
       </c>
       <c r="F232" s="105">
-        <v>42100.0</v>
+        <v>42100</v>
       </c>
       <c r="G232" s="103" t="s">
         <v>113</v>
       </c>
       <c r="H232" s="103" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="233" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="15" customHeight="1">
       <c r="A233" s="101"/>
       <c r="B233" s="102">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C233" s="103" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D233" s="104">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E233" s="105">
-        <v>42106.0</v>
+        <v>42106</v>
       </c>
       <c r="F233" s="105">
-        <v>42101.0</v>
+        <v>42101</v>
       </c>
       <c r="G233" s="103" t="s">
         <v>113</v>
       </c>
       <c r="H233" s="103" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="234" ht="15.0" customHeight="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="15" customHeight="1">
       <c r="A234" s="96"/>
       <c r="B234" s="97">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C234" s="98" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D234" s="106">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E234" s="99">
-        <v>42106.0</v>
+        <v>42106</v>
       </c>
       <c r="F234" s="100"/>
       <c r="G234" s="98" t="s">
         <v>113</v>
       </c>
       <c r="H234" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="235" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="15" customHeight="1">
       <c r="A235" s="96"/>
       <c r="B235" s="97">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C235" s="98" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D235" s="106">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="E235" s="99">
-        <v>42107.0</v>
+        <v>42107</v>
       </c>
       <c r="F235" s="100"/>
       <c r="G235" s="98" t="s">
         <v>113</v>
       </c>
       <c r="H235" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="236" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="15" customHeight="1">
       <c r="A236" s="110"/>
       <c r="B236" s="111">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="C236" s="112" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D236" s="113">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="E236" s="113">
-        <v>42107.0</v>
+        <v>42107</v>
       </c>
       <c r="F236" s="114"/>
       <c r="G236" s="98" t="s">
         <v>113</v>
       </c>
       <c r="H236" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="237" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="15" customHeight="1">
       <c r="A237" s="52"/>
       <c r="C237" s="52"/>
       <c r="D237" s="52"/>
@@ -7848,114 +8347,114 @@
       <c r="G237" s="52"/>
       <c r="H237" s="52"/>
     </row>
-    <row r="238" ht="15.0" customHeight="1">
+    <row r="238" spans="1:8" ht="15" customHeight="1">
       <c r="A238" s="52"/>
       <c r="B238" s="97">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C238" s="98" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D238" s="99">
-        <v>42093.0</v>
+        <v>42093</v>
       </c>
       <c r="E238" s="99">
-        <v>42104.0</v>
+        <v>42104</v>
       </c>
       <c r="F238" s="100"/>
       <c r="G238" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H238" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="239" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="15" customHeight="1">
       <c r="A239" s="52"/>
       <c r="B239" s="97">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C239" s="98" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D239" s="106">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E239" s="99">
-        <v>42105.0</v>
+        <v>42105</v>
       </c>
       <c r="F239" s="100"/>
       <c r="G239" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H239" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="240" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="15" customHeight="1">
       <c r="A240" s="52"/>
       <c r="B240" s="97">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C240" s="98" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D240" s="106">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E240" s="99">
-        <v>42105.0</v>
+        <v>42105</v>
       </c>
       <c r="F240" s="100"/>
       <c r="G240" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H240" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="241" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="15" customHeight="1">
       <c r="A241" s="52"/>
       <c r="B241" s="97">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="D241" s="106">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="E241" s="99">
-        <v>42106.0</v>
+        <v>42106</v>
       </c>
       <c r="F241" s="100"/>
       <c r="G241" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H241" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="242" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="15" customHeight="1">
       <c r="A242" s="52"/>
       <c r="B242" s="97">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="C242" s="98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D242" s="106">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="E242" s="99">
-        <v>42106.0</v>
+        <v>42106</v>
       </c>
       <c r="F242" s="100"/>
       <c r="G242" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H242" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="243" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="15" customHeight="1">
       <c r="A243" s="52"/>
       <c r="B243" s="52"/>
       <c r="C243" s="52"/>
@@ -7965,117 +8464,117 @@
       <c r="G243" s="52"/>
       <c r="H243" s="52"/>
     </row>
-    <row r="244" ht="15.0" customHeight="1">
+    <row r="244" spans="1:8" ht="15" customHeight="1">
       <c r="A244" s="52"/>
       <c r="B244" s="97">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C244" s="98" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D244" s="99">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E244" s="99">
-        <v>42104.0</v>
+        <v>42104</v>
       </c>
       <c r="F244" s="100"/>
       <c r="G244" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H244" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="245" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="15" customHeight="1">
       <c r="A245" s="52"/>
       <c r="B245" s="97">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C245" s="98" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D245" s="106">
-        <v>42094.0</v>
+        <v>42094</v>
       </c>
       <c r="E245" s="99">
-        <v>42105.0</v>
+        <v>42105</v>
       </c>
       <c r="F245" s="100"/>
       <c r="G245" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H245" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="246" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="15" customHeight="1">
       <c r="A246" s="52"/>
       <c r="B246" s="97">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C246" s="98" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D246" s="106">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="E246" s="99">
-        <v>42106.0</v>
+        <v>42106</v>
       </c>
       <c r="F246" s="100"/>
       <c r="G246" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H246" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="247" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="15" customHeight="1">
       <c r="A247" s="52"/>
       <c r="B247" s="97">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C247" s="98" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D247" s="106">
-        <v>42095.0</v>
+        <v>42095</v>
       </c>
       <c r="E247" s="99">
-        <v>42106.0</v>
+        <v>42106</v>
       </c>
       <c r="F247" s="100"/>
       <c r="G247" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H247" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="248" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" ht="15" customHeight="1">
       <c r="A248" s="52"/>
       <c r="B248" s="97">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="C248" s="98" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D248" s="106">
-        <v>42096.0</v>
+        <v>42096</v>
       </c>
       <c r="E248" s="99">
-        <v>42107.0</v>
+        <v>42107</v>
       </c>
       <c r="F248" s="100"/>
       <c r="G248" s="98" t="s">
         <v>29</v>
       </c>
       <c r="H248" s="98" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="249" ht="15.0" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="15" customHeight="1">
       <c r="A249" s="52"/>
       <c r="B249" s="52"/>
       <c r="C249" s="52"/>
@@ -8085,7 +8584,7 @@
       <c r="G249" s="52"/>
       <c r="H249" s="52"/>
     </row>
-    <row r="250" ht="15.0" customHeight="1">
+    <row r="250" spans="1:8" ht="15" customHeight="1">
       <c r="A250" s="95"/>
       <c r="B250" s="115"/>
       <c r="C250" s="115"/>
@@ -8095,7 +8594,7 @@
       <c r="G250" s="115"/>
       <c r="H250" s="115"/>
     </row>
-    <row r="251" ht="15.0" customHeight="1">
+    <row r="251" spans="1:8" ht="15" customHeight="1">
       <c r="A251" s="52"/>
       <c r="B251" s="52"/>
       <c r="C251" s="52"/>
@@ -8105,41 +8604,178 @@
       <c r="G251" s="52"/>
       <c r="H251" s="52"/>
     </row>
-    <row r="252" ht="15.0" customHeight="1">
-      <c r="A252" s="52"/>
-      <c r="B252" s="116" t="s">
-        <v>184</v>
-      </c>
-      <c r="C252" s="52"/>
-      <c r="D252" s="52"/>
-      <c r="E252" s="52"/>
+    <row r="252" spans="1:8" ht="15" customHeight="1">
+      <c r="C252" t="s">
+        <v>218</v>
+      </c>
+      <c r="D252" s="117">
+        <v>42097</v>
+      </c>
+      <c r="E252" s="117">
+        <v>42114</v>
+      </c>
       <c r="F252" s="52"/>
-      <c r="G252" s="52"/>
-      <c r="H252" s="52"/>
-    </row>
-    <row r="253" ht="15.0" customHeight="1">
-      <c r="A253" s="52"/>
-      <c r="B253" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="C253" s="52"/>
-      <c r="D253" s="52"/>
-      <c r="E253" s="52"/>
+      <c r="G252" s="52" t="s">
+        <v>228</v>
+      </c>
+      <c r="H252" s="52" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="15" customHeight="1">
+      <c r="C253" t="s">
+        <v>220</v>
+      </c>
+      <c r="D253" s="117">
+        <v>42098</v>
+      </c>
+      <c r="E253" s="117">
+        <v>42114</v>
+      </c>
       <c r="F253" s="52"/>
-      <c r="G253" s="52"/>
-      <c r="H253" s="52"/>
+      <c r="G253" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="H253" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="15" customHeight="1">
+      <c r="C254" t="s">
+        <v>219</v>
+      </c>
+      <c r="D254" s="117">
+        <v>42099</v>
+      </c>
+      <c r="E254" s="117">
+        <v>42114</v>
+      </c>
+      <c r="G254" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="H254" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="15" customHeight="1">
+      <c r="C256" t="s">
+        <v>221</v>
+      </c>
+      <c r="D256" s="117">
+        <v>42099</v>
+      </c>
+      <c r="E256" s="117">
+        <v>42114</v>
+      </c>
+      <c r="G256" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="H256" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="15" customHeight="1">
+      <c r="C257" t="s">
+        <v>222</v>
+      </c>
+      <c r="D257" s="117">
+        <v>42100</v>
+      </c>
+      <c r="E257" s="117">
+        <v>42114</v>
+      </c>
+      <c r="G257" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="H257" s="61" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="15" customHeight="1">
+      <c r="C259" t="s">
+        <v>223</v>
+      </c>
+      <c r="D259" s="117">
+        <v>42099</v>
+      </c>
+      <c r="E259" s="117">
+        <v>42114</v>
+      </c>
+      <c r="G259" s="61" t="s">
+        <v>228</v>
+      </c>
+      <c r="H259" s="116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="15" customHeight="1">
+      <c r="C260" t="s">
+        <v>224</v>
+      </c>
+      <c r="D260" s="117">
+        <v>42100</v>
+      </c>
+      <c r="E260" s="117">
+        <v>42114</v>
+      </c>
+      <c r="G260" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="H260" s="116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="15" customHeight="1">
+      <c r="C261" s="116" t="s">
+        <v>225</v>
+      </c>
+      <c r="D261" s="117">
+        <v>42101</v>
+      </c>
+      <c r="E261" s="117">
+        <v>42114</v>
+      </c>
+      <c r="G261" s="116" t="s">
+        <v>49</v>
+      </c>
+      <c r="H261" s="116" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="15" customHeight="1">
+      <c r="C262" s="116"/>
+      <c r="D262" s="52"/>
+    </row>
+    <row r="263" spans="1:8" ht="15" customHeight="1">
+      <c r="A263" s="116"/>
+      <c r="B263" s="68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="15" customHeight="1">
+      <c r="A264" s="116"/>
+      <c r="B264" s="70" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="152:159 F168">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <phoneticPr fontId="12" type="noConversion"/>
+  <conditionalFormatting sqref="A152:XFD159 F168">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="1">
       <formula>LEN(TRIM(152))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="152:159 F168">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+  <conditionalFormatting sqref="A152:XFD159 F168">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="2">
       <formula>LEN(TRIM(152))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>